--- a/1.xlsx
+++ b/1.xlsx
@@ -178,12 +178,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744">
   <si>
     <t>北京泰迈德科技有限公司</t>
   </si>
   <si>
-    <t>NES&amp;DSD</t>
+    <t>[14]</t>
   </si>
   <si>
     <t>yun729@126.com</t>
@@ -1359,7 +1359,7 @@
     <t>湖北梵康医疗科技有限公司</t>
   </si>
   <si>
-    <t>NES&amp;DSD/OJR</t>
+    <t>[5,14]</t>
   </si>
   <si>
     <t>hbfankang@163.com</t>
@@ -1371,7 +1371,7 @@
     <t>天津九华科技发展有限公司</t>
   </si>
   <si>
-    <t>NES&amp;DSD/OPM</t>
+    <t>[10,14]</t>
   </si>
   <si>
     <t>tjjiuhua@126.com</t>
@@ -1392,982 +1392,988 @@
     <t>北京市世纪同步科贸有限责任公司</t>
   </si>
   <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>maomaogong2018@sina.com</t>
+  </si>
+  <si>
+    <t>20250958@bbraun.com</t>
+  </si>
+  <si>
+    <t>郑州市华康科技有限公司</t>
+  </si>
+  <si>
+    <t>hk_088@126.com</t>
+  </si>
+  <si>
+    <t>20251320@bbraun.com</t>
+  </si>
+  <si>
+    <t>黑龙江省爱康达医疗器械经销有限公司</t>
+  </si>
+  <si>
+    <t>20833580@qq.com</t>
+  </si>
+  <si>
+    <t>20534910@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海迪青医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>15902013653@163.com</t>
+  </si>
+  <si>
+    <t>20710346@bbraun.com</t>
+  </si>
+  <si>
+    <t>济宁大有医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>songlei0532@126.com</t>
+  </si>
+  <si>
+    <t>20714671@bbraun.com</t>
+  </si>
+  <si>
+    <t>沈阳天瑞禾商贸有限公司</t>
+  </si>
+  <si>
+    <t>1425372215@qq.com</t>
+  </si>
+  <si>
+    <t>20715054@bbraun.com</t>
+  </si>
+  <si>
+    <t>广东贝科迪医疗实业有限公司</t>
+  </si>
+  <si>
+    <t>942200766@qq.om</t>
+  </si>
+  <si>
+    <t>20740953@bbraun.com</t>
+  </si>
+  <si>
+    <t>菏泽市弘业医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>18865031711@163.com</t>
+  </si>
+  <si>
+    <t>20741827@bbraun.com</t>
+  </si>
+  <si>
+    <t>西安达泰商贸有限公司</t>
+  </si>
+  <si>
+    <t>248507692@qq.com</t>
+  </si>
+  <si>
+    <t>20741828@bbraun.com</t>
+  </si>
+  <si>
+    <t>北京药之音科技发展有限公司</t>
+  </si>
+  <si>
+    <t>anzhifeng@163.com,</t>
+  </si>
+  <si>
+    <t>20749918@bbraun.com</t>
+  </si>
+  <si>
+    <t>济南博越医疗设备有限公司</t>
+  </si>
+  <si>
+    <t>jinanboyue@163.com</t>
+  </si>
+  <si>
+    <t>20760960@bbraun.com</t>
+  </si>
+  <si>
+    <t>北京荟俊天诚医药科技有限公司</t>
+  </si>
+  <si>
+    <t>kongxiangwei@daosj.com.cn</t>
+  </si>
+  <si>
+    <t>20761116@bbraun.com</t>
+  </si>
+  <si>
+    <t>宁波美尔克商贸有限公司</t>
+  </si>
+  <si>
+    <t>61346788@qq.com</t>
+  </si>
+  <si>
+    <t>20765069@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海杜蘅贸易商行</t>
+  </si>
+  <si>
+    <t>gzjd1809@126.com</t>
+  </si>
+  <si>
+    <t>20771815@bbraun.com</t>
+  </si>
+  <si>
+    <t>广西乐斯瑞医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>1203169848@qq.com</t>
+  </si>
+  <si>
+    <t>20796672@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海助美贸易商行</t>
+  </si>
+  <si>
+    <t>80581557@qq.com</t>
+  </si>
+  <si>
+    <t>20806105@bbraun.com</t>
+  </si>
+  <si>
+    <t>南京科林佳华医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>454373900@qq.com</t>
+  </si>
+  <si>
+    <t>20810445@bbraun.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐州亚昕医疗科技有限公司 </t>
+  </si>
+  <si>
+    <t>18952221258@189.cn</t>
+  </si>
+  <si>
+    <t>20820864@bbraun.com</t>
+  </si>
+  <si>
+    <t>北京海瑞民诚科贸有限公司</t>
+  </si>
+  <si>
+    <t>yongxing628@126.com</t>
+  </si>
+  <si>
+    <t>20823930@bbraun.com</t>
+  </si>
+  <si>
+    <t>芜湖东旭威宇医疗器械科技有限公司</t>
+  </si>
+  <si>
+    <t>415197075@qq.com</t>
+  </si>
+  <si>
+    <t>20826535@bbraun.com</t>
+  </si>
+  <si>
+    <t>淮北市济仁药业有限公司</t>
+  </si>
+  <si>
+    <t>13865952650@126.com</t>
+  </si>
+  <si>
+    <t>20827820@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海际烨贸易商行</t>
+  </si>
+  <si>
+    <t>a13401990999@126.com</t>
+  </si>
+  <si>
+    <t>20830780@bbraun.com</t>
+  </si>
+  <si>
+    <t>铜陵骥骜商贸有限公司</t>
+  </si>
+  <si>
+    <t>tonglingjiao@163.com</t>
+  </si>
+  <si>
+    <t>20832411@bbraun.com</t>
+  </si>
+  <si>
+    <t>苏州沁康医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>459324186@qq.com</t>
+  </si>
+  <si>
+    <t>20839328@bbraun.com</t>
+  </si>
+  <si>
+    <t>江西新慷医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>282227186@qq.com</t>
+  </si>
+  <si>
+    <t>20841402@bbraun.com</t>
+  </si>
+  <si>
+    <t>惠州市康鑫医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>13502276986@139.com</t>
+  </si>
+  <si>
+    <t>20845655@bbraun.com</t>
+  </si>
+  <si>
+    <t>苏州梓绮医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>2466698098@qq.com</t>
+  </si>
+  <si>
+    <t>20847187@bbraun.com</t>
+  </si>
+  <si>
+    <t>深圳市凯利健康投资有限公司</t>
+  </si>
+  <si>
+    <t>zhang_lei880@126.com</t>
+  </si>
+  <si>
+    <t>20849255@bbraun.com</t>
+  </si>
+  <si>
+    <t>宁波易阳生物科技有限公司</t>
+  </si>
+  <si>
+    <t>qxyk2015@163.com</t>
+  </si>
+  <si>
+    <t>20849297@bbraun.com</t>
+  </si>
+  <si>
+    <t>江西馨垚商贸有限公司</t>
+  </si>
+  <si>
+    <t>639566031@qq.com</t>
+  </si>
+  <si>
+    <t>20853249@bbraun.com</t>
+  </si>
+  <si>
+    <t>江西欣怡生物科技有限公司</t>
+  </si>
+  <si>
+    <t>184127437@qq.com</t>
+  </si>
+  <si>
+    <t>20853646@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海继辉医疗科技服务中心</t>
+  </si>
+  <si>
+    <t>13220846666@163.com</t>
+  </si>
+  <si>
+    <t>20856838@bbraun.com</t>
+  </si>
+  <si>
+    <t>抚州优美恒康商贸有限公司</t>
+  </si>
+  <si>
+    <t>fdrx2010@126.com</t>
+  </si>
+  <si>
+    <t>20865969@bbraun.com</t>
+  </si>
+  <si>
+    <t>长春恒艾医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>401888013@qq.com</t>
+  </si>
+  <si>
+    <t>20866699@bbraun.com</t>
+  </si>
+  <si>
+    <t>哈尔滨中山生物工程有限公司</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>zhongshan_yiliao@sina.com</t>
+  </si>
+  <si>
+    <t>20251084@bbraun.com</t>
+  </si>
+  <si>
+    <t>天津市和仁医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>13902194481@163.com</t>
+  </si>
+  <si>
+    <t>20251269@bbraun.com</t>
+  </si>
+  <si>
+    <t>广州市晖晟医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>1633665134@qq.com</t>
+  </si>
+  <si>
+    <t>20277745@bbraun.com</t>
+  </si>
+  <si>
+    <t>遵义弘腾医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>zoushuang1000@sina.com.cn</t>
+  </si>
+  <si>
+    <t>20278784@bbraun.com</t>
+  </si>
+  <si>
+    <t>广州市振卫医疗器械科技有限公司</t>
+  </si>
+  <si>
+    <t>laoge626@sina.com</t>
+  </si>
+  <si>
+    <t>20385530@bbraun.com</t>
+  </si>
+  <si>
+    <t>杭州立创生物科技有限公司</t>
+  </si>
+  <si>
+    <t>jjz5496@163.com</t>
+  </si>
+  <si>
+    <t>20434927@bbraun.com</t>
+  </si>
+  <si>
+    <t>沈阳百利康商贸有限公司</t>
+  </si>
+  <si>
+    <t>1481498590@qq.com</t>
+  </si>
+  <si>
+    <t>20517062@bbraun.com</t>
+  </si>
+  <si>
+    <t>重庆创景医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>chuangjingyiliao@126.com</t>
+  </si>
+  <si>
+    <t>20526227@bbraun.com</t>
+  </si>
+  <si>
+    <t>河北金盛达医疗用品有限公司</t>
+  </si>
+  <si>
+    <t>jinshengda608@126.com</t>
+  </si>
+  <si>
+    <t>20540017@bbraun.com</t>
+  </si>
+  <si>
+    <t>长沙盈和医疗器械销售有限公司</t>
+  </si>
+  <si>
+    <t>270044042@qq.com</t>
+  </si>
+  <si>
+    <t>20546968@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海浩瑞医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>taoyulin2009@163.com</t>
+  </si>
+  <si>
+    <t>20577504@bbraun.com</t>
+  </si>
+  <si>
+    <t>重庆信力禾医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>jjvc1974@163.com</t>
+  </si>
+  <si>
+    <t>20580709@bbraun.com</t>
+  </si>
+  <si>
+    <t>长春市深博商贸有限公司</t>
+  </si>
+  <si>
+    <t>shengyu7777@163.com</t>
+  </si>
+  <si>
+    <t>20586867@bbraun.com</t>
+  </si>
+  <si>
+    <t>广州微沃纳晶生物科技有限公司</t>
+  </si>
+  <si>
+    <t>gzwwnj@126.com</t>
+  </si>
+  <si>
+    <t>20626621@bbraun.com</t>
+  </si>
+  <si>
+    <t>河南亚本实业有限公司</t>
+  </si>
+  <si>
+    <t>henanyabenshiye@163.com</t>
+  </si>
+  <si>
+    <t>20627308@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海弘序商贸有限公司</t>
+  </si>
+  <si>
+    <t>hongxu1905@126.com</t>
+  </si>
+  <si>
+    <t>20632204@bbraun.com</t>
+  </si>
+  <si>
+    <t>青岛泰美康医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>lyn733@163.com</t>
+  </si>
+  <si>
+    <t>20638416@bbraun.com</t>
+  </si>
+  <si>
+    <t>唐山市都盛医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>tangshandsyl@sina.com</t>
+  </si>
+  <si>
+    <t>20643092@bbraun.com</t>
+  </si>
+  <si>
+    <t>郑州康宇健医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>1376379029@qq.com</t>
+  </si>
+  <si>
+    <t>20648586@bbraun.com</t>
+  </si>
+  <si>
+    <t>国药集团河北医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>snbcylqx@163.com</t>
+  </si>
+  <si>
+    <t>20678967@bbraun.com</t>
+  </si>
+  <si>
+    <t>天津市飞欣贸易有限公司</t>
+  </si>
+  <si>
+    <t>sky.hb@163.com</t>
+  </si>
+  <si>
+    <t>20695133@bbraun.com</t>
+  </si>
+  <si>
+    <t>贵州易和医疗设备有限公司</t>
+  </si>
+  <si>
+    <t>2030917655@qq.com</t>
+  </si>
+  <si>
+    <t>20720963@bbraun.com</t>
+  </si>
+  <si>
+    <t>广州鸿泳汇医疗设备有限公司</t>
+  </si>
+  <si>
+    <t>linnaa2008@sina.com</t>
+  </si>
+  <si>
+    <t>20727097@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海高迅医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>jfr0808@163.com</t>
+  </si>
+  <si>
+    <t>20741433@bbraun.com</t>
+  </si>
+  <si>
+    <t>济南品成商贸有限公司</t>
+  </si>
+  <si>
+    <t>Jnpcsw@163.com</t>
+  </si>
+  <si>
+    <t>20742843@bbraun.com</t>
+  </si>
+  <si>
+    <t>广州倍安然医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>zhongchunxi27@163.com</t>
+  </si>
+  <si>
+    <t>20746031@bbraun.com</t>
+  </si>
+  <si>
+    <t>南京欣日欣贸易有限公司</t>
+  </si>
+  <si>
+    <t>jason102579@163.com</t>
+  </si>
+  <si>
+    <t>20746032@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海夔门贸易商行</t>
+  </si>
+  <si>
+    <t>nike160@163.com</t>
+  </si>
+  <si>
+    <t>20746038@bbraun.com</t>
+  </si>
+  <si>
+    <t>吉林省格兰瑞商贸有限公司</t>
+  </si>
+  <si>
+    <t>2193684109@qq.com</t>
+  </si>
+  <si>
+    <t>20747349@bbraun.com</t>
+  </si>
+  <si>
+    <t>山东法铎医药科技有限公司</t>
+  </si>
+  <si>
+    <t>306305289@qq.com</t>
+  </si>
+  <si>
+    <t>20747777@bbraun.com</t>
+  </si>
+  <si>
+    <t>南京初元科技有限公司</t>
+  </si>
+  <si>
+    <t>23368801@qq.com</t>
+  </si>
+  <si>
+    <t>20750298@bbraun.com</t>
+  </si>
+  <si>
+    <t>长春市朝华商贸有限公司</t>
+  </si>
+  <si>
+    <t>2354350446@qq.com</t>
+  </si>
+  <si>
+    <t>20750299@bbraun.com</t>
+  </si>
+  <si>
+    <t>中鼎濮上河北医疗器械贸易有限公司</t>
+  </si>
+  <si>
+    <t>42522270@qq.com</t>
+  </si>
+  <si>
+    <t>20750970@bbraun.com</t>
+  </si>
+  <si>
+    <t>陕西美盈实业有限公司</t>
+  </si>
+  <si>
+    <t>478479151@qq.com</t>
+  </si>
+  <si>
+    <t>20754273@bbraun.com</t>
+  </si>
+  <si>
+    <t>万斯特（福州）医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>vancete@163.com</t>
+  </si>
+  <si>
+    <t>20754274@bbraun.com</t>
+  </si>
+  <si>
+    <t>温州特宏贸易有限公司</t>
+  </si>
+  <si>
+    <t>yejianzhong100@126.com</t>
+  </si>
+  <si>
+    <t>20765650@bbraun.com</t>
+  </si>
+  <si>
+    <t>长沙市希普博医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>9284983@qq.com</t>
+  </si>
+  <si>
+    <t>20772592@bbraun.com</t>
+  </si>
+  <si>
+    <t>云南箐和商贸有限公司</t>
+  </si>
+  <si>
+    <t>491099150@qq.com</t>
+  </si>
+  <si>
+    <t>20777157@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海衢瑞医疗用品服务中心</t>
+  </si>
+  <si>
+    <t>jtm1978@163.com</t>
+  </si>
+  <si>
+    <t>20785213@bbraun.com</t>
+  </si>
+  <si>
+    <t>北京皮米科技有限公司</t>
+  </si>
+  <si>
+    <t>cocazsj@sina.com</t>
+  </si>
+  <si>
+    <t>20792297@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海安范商贸有限公司</t>
+  </si>
+  <si>
+    <t>535937939@qq.com</t>
+  </si>
+  <si>
+    <t>20798469@bbraun.com</t>
+  </si>
+  <si>
+    <t>广州医盾宝医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>zwl999@gzyidunbao.com</t>
+  </si>
+  <si>
+    <t>20800693@bbraun.com</t>
+  </si>
+  <si>
+    <t>杭州康晟健康管理咨询有限公司</t>
+  </si>
+  <si>
+    <t>mingw@91jkys.com</t>
+  </si>
+  <si>
+    <t>20802376@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海康星医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>yu_wengao@163.com</t>
+  </si>
+  <si>
+    <t>20817291@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海钧霖医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>yue_jun77@163.com</t>
+  </si>
+  <si>
+    <t>20823748@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海泽庶医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>shihu.huo@zeshuyl.com</t>
+  </si>
+  <si>
+    <t>20824271@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海祁连仲医疗器械销售中心</t>
+  </si>
+  <si>
+    <t>qilianzhong2014@163.com</t>
+  </si>
+  <si>
+    <t>20826245@bbraun.com</t>
+  </si>
+  <si>
+    <t>南京纳德国际贸易有限公司</t>
+  </si>
+  <si>
+    <t>njyk06@126.com</t>
+  </si>
+  <si>
+    <t>20826566@bbraun.com</t>
+  </si>
+  <si>
+    <t>北京鑫紫竹兴业医疗器械股份有限公司</t>
+  </si>
+  <si>
+    <t>xdong@vip.163.com</t>
+  </si>
+  <si>
+    <t>20829797@bbraun.com</t>
+  </si>
+  <si>
+    <t>海王共图（北京）医疗设备有限公司</t>
+  </si>
+  <si>
+    <t>fanjun@goal-tech.com</t>
+  </si>
+  <si>
+    <t>20835691@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海奥懿电子商务有限公司</t>
+  </si>
+  <si>
+    <t>yi.li@eosi.com.cn</t>
+  </si>
+  <si>
+    <t>20837949@bbraun.com</t>
+  </si>
+  <si>
+    <t>杭州奥健医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>150309865@qq.com</t>
+  </si>
+  <si>
+    <t>20838616@bbraun.com</t>
+  </si>
+  <si>
+    <t>北京海吉纳医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>hjn163@163.com</t>
+  </si>
+  <si>
+    <t>20840679@bbraun.com</t>
+  </si>
+  <si>
+    <t>北京恒通宝源科技有限公司</t>
+  </si>
+  <si>
+    <t>1012643471@qq.com</t>
+  </si>
+  <si>
+    <t>20841945@bbraun.com</t>
+  </si>
+  <si>
+    <t>河南华益药业有限责任公司</t>
+  </si>
+  <si>
+    <t>qf111222@126.com</t>
+  </si>
+  <si>
+    <t>20843846@bbraun.com</t>
+  </si>
+  <si>
+    <t>天津金立健科技有限公司</t>
+  </si>
+  <si>
+    <t>3260905136@qq.com</t>
+  </si>
+  <si>
+    <t>20843847@bbraun.com</t>
+  </si>
+  <si>
+    <t>河北万可诺医疗器械销售有限公司</t>
+  </si>
+  <si>
+    <t>18633010625@163.com</t>
+  </si>
+  <si>
+    <t>20844138@bbraun.com</t>
+  </si>
+  <si>
+    <t>瑞克倍尔（北京）科贸有限公司</t>
+  </si>
+  <si>
+    <t>ericshibj@rickbellco.com</t>
+  </si>
+  <si>
+    <t>20844838@bbraun.com</t>
+  </si>
+  <si>
+    <t>天津惠普丰益商贸有限公司</t>
+  </si>
+  <si>
+    <t>yuanjingchao_666@sina.com</t>
+  </si>
+  <si>
+    <t>20847188@bbraun.com</t>
+  </si>
+  <si>
+    <t>勒盛生物科技（上海）有限公司</t>
+  </si>
+  <si>
+    <t>larryblp@126.com</t>
+  </si>
+  <si>
+    <t>20855081@bbraun.com</t>
+  </si>
+  <si>
+    <t>徐州布彦安业商贸中心</t>
+  </si>
+  <si>
+    <t>lx@medicine-hl.com</t>
+  </si>
+  <si>
+    <t>20863069@bbraun.com</t>
+  </si>
+  <si>
+    <t>济南祥丰医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>jnxfyl@126.com</t>
+  </si>
+  <si>
+    <t>20863586@bbraun.com</t>
+  </si>
+  <si>
+    <t>江苏米康医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>mimedical@126.com</t>
+  </si>
+  <si>
+    <t>20866700@bbraun.com</t>
+  </si>
+  <si>
+    <t>广东昊康医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>383821567@qq.com</t>
+  </si>
+  <si>
+    <t>20868218@bbraun.com</t>
+  </si>
+  <si>
+    <t>瑞思波特医药科技有限公司</t>
+  </si>
+  <si>
+    <t>3057527929@qq.com</t>
+  </si>
+  <si>
+    <t>20868953@bbraun.com</t>
+  </si>
+  <si>
+    <t>广州隆睿贸易有限公司</t>
+  </si>
+  <si>
+    <t>loongree@163.com</t>
+  </si>
+  <si>
+    <t>20869266@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海凤翱电子商务有限公司</t>
+  </si>
+  <si>
+    <t>phoenixsoar@163.com</t>
+  </si>
+  <si>
+    <t>20869485@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海秀微医疗器械销售中心</t>
+  </si>
+  <si>
+    <t>xwt8877@163.com</t>
+  </si>
+  <si>
+    <t>20870548@bbraun.com</t>
+  </si>
+  <si>
+    <t>江西巨方远影科技有限公司</t>
+  </si>
+  <si>
+    <t>yongwen.yuan@jufangmsp.com</t>
+  </si>
+  <si>
+    <t>20871206@bbraun.com</t>
+  </si>
+  <si>
+    <t>北京力博昌虹医疗器械科技发展有限公司</t>
+  </si>
+  <si>
+    <t>13910812585@139.com</t>
+  </si>
+  <si>
+    <t>20872283@bbraun.com</t>
+  </si>
+  <si>
+    <t>上海健途生物科技有限公司</t>
+  </si>
+  <si>
+    <t>welldonesh@sina.com</t>
+  </si>
+  <si>
+    <t>20872831@bbraun.com</t>
+  </si>
+  <si>
+    <t>合肥市迈通医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>zhangyl@mountmedical.cn</t>
+  </si>
+  <si>
+    <t>20875646@bbraun.com</t>
+  </si>
+  <si>
+    <t>SAP Code</t>
+  </si>
+  <si>
+    <t>经销商名称</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>经销商邮箱</t>
+  </si>
+  <si>
+    <t>登录账号</t>
+  </si>
+  <si>
     <t>OJR</t>
   </si>
   <si>
-    <t>maomaogong2018@sina.com</t>
-  </si>
-  <si>
-    <t>20250958@bbraun.com</t>
-  </si>
-  <si>
-    <t>郑州市华康科技有限公司</t>
-  </si>
-  <si>
-    <t>hk_088@126.com</t>
-  </si>
-  <si>
-    <t>20251320@bbraun.com</t>
-  </si>
-  <si>
-    <t>黑龙江省爱康达医疗器械经销有限公司</t>
-  </si>
-  <si>
-    <t>20833580@qq.com</t>
-  </si>
-  <si>
-    <t>20534910@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海迪青医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>15902013653@163.com</t>
-  </si>
-  <si>
-    <t>20710346@bbraun.com</t>
-  </si>
-  <si>
-    <t>济宁大有医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>songlei0532@126.com</t>
-  </si>
-  <si>
-    <t>20714671@bbraun.com</t>
-  </si>
-  <si>
-    <t>沈阳天瑞禾商贸有限公司</t>
-  </si>
-  <si>
-    <t>1425372215@qq.com</t>
-  </si>
-  <si>
-    <t>20715054@bbraun.com</t>
-  </si>
-  <si>
-    <t>广东贝科迪医疗实业有限公司</t>
-  </si>
-  <si>
-    <t>942200766@qq.om</t>
-  </si>
-  <si>
-    <t>20740953@bbraun.com</t>
-  </si>
-  <si>
-    <t>菏泽市弘业医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>18865031711@163.com</t>
-  </si>
-  <si>
-    <t>20741827@bbraun.com</t>
-  </si>
-  <si>
-    <t>西安达泰商贸有限公司</t>
-  </si>
-  <si>
-    <t>248507692@qq.com</t>
-  </si>
-  <si>
-    <t>20741828@bbraun.com</t>
-  </si>
-  <si>
-    <t>北京药之音科技发展有限公司</t>
-  </si>
-  <si>
-    <t>anzhifeng@163.com,</t>
-  </si>
-  <si>
-    <t>20749918@bbraun.com</t>
-  </si>
-  <si>
-    <t>济南博越医疗设备有限公司</t>
-  </si>
-  <si>
-    <t>jinanboyue@163.com</t>
-  </si>
-  <si>
-    <t>20760960@bbraun.com</t>
-  </si>
-  <si>
-    <t>北京荟俊天诚医药科技有限公司</t>
-  </si>
-  <si>
-    <t>kongxiangwei@daosj.com.cn</t>
-  </si>
-  <si>
-    <t>20761116@bbraun.com</t>
-  </si>
-  <si>
-    <t>宁波美尔克商贸有限公司</t>
-  </si>
-  <si>
-    <t>61346788@qq.com</t>
-  </si>
-  <si>
-    <t>20765069@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海杜蘅贸易商行</t>
-  </si>
-  <si>
-    <t>gzjd1809@126.com</t>
-  </si>
-  <si>
-    <t>20771815@bbraun.com</t>
-  </si>
-  <si>
-    <t>广西乐斯瑞医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>1203169848@qq.com</t>
-  </si>
-  <si>
-    <t>20796672@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海助美贸易商行</t>
-  </si>
-  <si>
-    <t>80581557@qq.com</t>
-  </si>
-  <si>
-    <t>20806105@bbraun.com</t>
-  </si>
-  <si>
-    <t>南京科林佳华医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>454373900@qq.com</t>
-  </si>
-  <si>
-    <t>20810445@bbraun.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">徐州亚昕医疗科技有限公司 </t>
-  </si>
-  <si>
-    <t>18952221258@189.cn</t>
-  </si>
-  <si>
-    <t>20820864@bbraun.com</t>
-  </si>
-  <si>
-    <t>北京海瑞民诚科贸有限公司</t>
-  </si>
-  <si>
-    <t>yongxing628@126.com</t>
-  </si>
-  <si>
-    <t>20823930@bbraun.com</t>
-  </si>
-  <si>
-    <t>芜湖东旭威宇医疗器械科技有限公司</t>
-  </si>
-  <si>
-    <t>415197075@qq.com</t>
-  </si>
-  <si>
-    <t>20826535@bbraun.com</t>
-  </si>
-  <si>
-    <t>淮北市济仁药业有限公司</t>
-  </si>
-  <si>
-    <t>13865952650@126.com</t>
-  </si>
-  <si>
-    <t>20827820@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海际烨贸易商行</t>
-  </si>
-  <si>
-    <t>a13401990999@126.com</t>
-  </si>
-  <si>
-    <t>20830780@bbraun.com</t>
-  </si>
-  <si>
-    <t>铜陵骥骜商贸有限公司</t>
-  </si>
-  <si>
-    <t>tonglingjiao@163.com</t>
-  </si>
-  <si>
-    <t>20832411@bbraun.com</t>
-  </si>
-  <si>
-    <t>苏州沁康医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>459324186@qq.com</t>
-  </si>
-  <si>
-    <t>20839328@bbraun.com</t>
-  </si>
-  <si>
-    <t>江西新慷医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>282227186@qq.com</t>
-  </si>
-  <si>
-    <t>20841402@bbraun.com</t>
-  </si>
-  <si>
-    <t>惠州市康鑫医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>13502276986@139.com</t>
-  </si>
-  <si>
-    <t>20845655@bbraun.com</t>
-  </si>
-  <si>
-    <t>苏州梓绮医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>2466698098@qq.com</t>
-  </si>
-  <si>
-    <t>20847187@bbraun.com</t>
-  </si>
-  <si>
-    <t>深圳市凯利健康投资有限公司</t>
-  </si>
-  <si>
-    <t>zhang_lei880@126.com</t>
-  </si>
-  <si>
-    <t>20849255@bbraun.com</t>
-  </si>
-  <si>
-    <t>宁波易阳生物科技有限公司</t>
-  </si>
-  <si>
-    <t>qxyk2015@163.com</t>
-  </si>
-  <si>
-    <t>20849297@bbraun.com</t>
-  </si>
-  <si>
-    <t>江西馨垚商贸有限公司</t>
-  </si>
-  <si>
-    <t>639566031@qq.com</t>
-  </si>
-  <si>
-    <t>20853249@bbraun.com</t>
-  </si>
-  <si>
-    <t>江西欣怡生物科技有限公司</t>
-  </si>
-  <si>
-    <t>184127437@qq.com</t>
-  </si>
-  <si>
-    <t>20853646@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海继辉医疗科技服务中心</t>
-  </si>
-  <si>
-    <t>13220846666@163.com</t>
-  </si>
-  <si>
-    <t>20856838@bbraun.com</t>
-  </si>
-  <si>
-    <t>抚州优美恒康商贸有限公司</t>
-  </si>
-  <si>
-    <t>fdrx2010@126.com</t>
-  </si>
-  <si>
-    <t>20865969@bbraun.com</t>
-  </si>
-  <si>
-    <t>长春恒艾医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>401888013@qq.com</t>
-  </si>
-  <si>
-    <t>20866699@bbraun.com</t>
-  </si>
-  <si>
-    <t>哈尔滨中山生物工程有限公司</t>
+    <t>DSD</t>
+  </si>
+  <si>
+    <t>NE</t>
   </si>
   <si>
     <t>OPM</t>
-  </si>
-  <si>
-    <t>zhongshan_yiliao@sina.com</t>
-  </si>
-  <si>
-    <t>20251084@bbraun.com</t>
-  </si>
-  <si>
-    <t>天津市和仁医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>13902194481@163.com</t>
-  </si>
-  <si>
-    <t>20251269@bbraun.com</t>
-  </si>
-  <si>
-    <t>广州市晖晟医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>1633665134@qq.com</t>
-  </si>
-  <si>
-    <t>20277745@bbraun.com</t>
-  </si>
-  <si>
-    <t>遵义弘腾医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>zoushuang1000@sina.com.cn</t>
-  </si>
-  <si>
-    <t>20278784@bbraun.com</t>
-  </si>
-  <si>
-    <t>广州市振卫医疗器械科技有限公司</t>
-  </si>
-  <si>
-    <t>laoge626@sina.com</t>
-  </si>
-  <si>
-    <t>20385530@bbraun.com</t>
-  </si>
-  <si>
-    <t>杭州立创生物科技有限公司</t>
-  </si>
-  <si>
-    <t>jjz5496@163.com</t>
-  </si>
-  <si>
-    <t>20434927@bbraun.com</t>
-  </si>
-  <si>
-    <t>沈阳百利康商贸有限公司</t>
-  </si>
-  <si>
-    <t>1481498590@qq.com</t>
-  </si>
-  <si>
-    <t>20517062@bbraun.com</t>
-  </si>
-  <si>
-    <t>重庆创景医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>chuangjingyiliao@126.com</t>
-  </si>
-  <si>
-    <t>20526227@bbraun.com</t>
-  </si>
-  <si>
-    <t>河北金盛达医疗用品有限公司</t>
-  </si>
-  <si>
-    <t>jinshengda608@126.com</t>
-  </si>
-  <si>
-    <t>20540017@bbraun.com</t>
-  </si>
-  <si>
-    <t>长沙盈和医疗器械销售有限公司</t>
-  </si>
-  <si>
-    <t>270044042@qq.com</t>
-  </si>
-  <si>
-    <t>20546968@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海浩瑞医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>taoyulin2009@163.com</t>
-  </si>
-  <si>
-    <t>20577504@bbraun.com</t>
-  </si>
-  <si>
-    <t>重庆信力禾医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>jjvc1974@163.com</t>
-  </si>
-  <si>
-    <t>20580709@bbraun.com</t>
-  </si>
-  <si>
-    <t>长春市深博商贸有限公司</t>
-  </si>
-  <si>
-    <t>shengyu7777@163.com</t>
-  </si>
-  <si>
-    <t>20586867@bbraun.com</t>
-  </si>
-  <si>
-    <t>广州微沃纳晶生物科技有限公司</t>
-  </si>
-  <si>
-    <t>gzwwnj@126.com</t>
-  </si>
-  <si>
-    <t>20626621@bbraun.com</t>
-  </si>
-  <si>
-    <t>河南亚本实业有限公司</t>
-  </si>
-  <si>
-    <t>henanyabenshiye@163.com</t>
-  </si>
-  <si>
-    <t>20627308@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海弘序商贸有限公司</t>
-  </si>
-  <si>
-    <t>hongxu1905@126.com</t>
-  </si>
-  <si>
-    <t>20632204@bbraun.com</t>
-  </si>
-  <si>
-    <t>青岛泰美康医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>lyn733@163.com</t>
-  </si>
-  <si>
-    <t>20638416@bbraun.com</t>
-  </si>
-  <si>
-    <t>唐山市都盛医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>tangshandsyl@sina.com</t>
-  </si>
-  <si>
-    <t>20643092@bbraun.com</t>
-  </si>
-  <si>
-    <t>郑州康宇健医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>1376379029@qq.com</t>
-  </si>
-  <si>
-    <t>20648586@bbraun.com</t>
-  </si>
-  <si>
-    <t>国药集团河北医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>snbcylqx@163.com</t>
-  </si>
-  <si>
-    <t>20678967@bbraun.com</t>
-  </si>
-  <si>
-    <t>天津市飞欣贸易有限公司</t>
-  </si>
-  <si>
-    <t>sky.hb@163.com</t>
-  </si>
-  <si>
-    <t>20695133@bbraun.com</t>
-  </si>
-  <si>
-    <t>贵州易和医疗设备有限公司</t>
-  </si>
-  <si>
-    <t>2030917655@qq.com</t>
-  </si>
-  <si>
-    <t>20720963@bbraun.com</t>
-  </si>
-  <si>
-    <t>广州鸿泳汇医疗设备有限公司</t>
-  </si>
-  <si>
-    <t>linnaa2008@sina.com</t>
-  </si>
-  <si>
-    <t>20727097@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海高迅医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>jfr0808@163.com</t>
-  </si>
-  <si>
-    <t>20741433@bbraun.com</t>
-  </si>
-  <si>
-    <t>济南品成商贸有限公司</t>
-  </si>
-  <si>
-    <t>Jnpcsw@163.com</t>
-  </si>
-  <si>
-    <t>20742843@bbraun.com</t>
-  </si>
-  <si>
-    <t>广州倍安然医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>zhongchunxi27@163.com</t>
-  </si>
-  <si>
-    <t>20746031@bbraun.com</t>
-  </si>
-  <si>
-    <t>南京欣日欣贸易有限公司</t>
-  </si>
-  <si>
-    <t>jason102579@163.com</t>
-  </si>
-  <si>
-    <t>20746032@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海夔门贸易商行</t>
-  </si>
-  <si>
-    <t>nike160@163.com</t>
-  </si>
-  <si>
-    <t>20746038@bbraun.com</t>
-  </si>
-  <si>
-    <t>吉林省格兰瑞商贸有限公司</t>
-  </si>
-  <si>
-    <t>2193684109@qq.com</t>
-  </si>
-  <si>
-    <t>20747349@bbraun.com</t>
-  </si>
-  <si>
-    <t>山东法铎医药科技有限公司</t>
-  </si>
-  <si>
-    <t>306305289@qq.com</t>
-  </si>
-  <si>
-    <t>20747777@bbraun.com</t>
-  </si>
-  <si>
-    <t>南京初元科技有限公司</t>
-  </si>
-  <si>
-    <t>23368801@qq.com</t>
-  </si>
-  <si>
-    <t>20750298@bbraun.com</t>
-  </si>
-  <si>
-    <t>长春市朝华商贸有限公司</t>
-  </si>
-  <si>
-    <t>2354350446@qq.com</t>
-  </si>
-  <si>
-    <t>20750299@bbraun.com</t>
-  </si>
-  <si>
-    <t>中鼎濮上河北医疗器械贸易有限公司</t>
-  </si>
-  <si>
-    <t>42522270@qq.com</t>
-  </si>
-  <si>
-    <t>20750970@bbraun.com</t>
-  </si>
-  <si>
-    <t>陕西美盈实业有限公司</t>
-  </si>
-  <si>
-    <t>478479151@qq.com</t>
-  </si>
-  <si>
-    <t>20754273@bbraun.com</t>
-  </si>
-  <si>
-    <t>万斯特（福州）医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>vancete@163.com</t>
-  </si>
-  <si>
-    <t>20754274@bbraun.com</t>
-  </si>
-  <si>
-    <t>温州特宏贸易有限公司</t>
-  </si>
-  <si>
-    <t>yejianzhong100@126.com</t>
-  </si>
-  <si>
-    <t>20765650@bbraun.com</t>
-  </si>
-  <si>
-    <t>长沙市希普博医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>9284983@qq.com</t>
-  </si>
-  <si>
-    <t>20772592@bbraun.com</t>
-  </si>
-  <si>
-    <t>云南箐和商贸有限公司</t>
-  </si>
-  <si>
-    <t>491099150@qq.com</t>
-  </si>
-  <si>
-    <t>20777157@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海衢瑞医疗用品服务中心</t>
-  </si>
-  <si>
-    <t>jtm1978@163.com</t>
-  </si>
-  <si>
-    <t>20785213@bbraun.com</t>
-  </si>
-  <si>
-    <t>北京皮米科技有限公司</t>
-  </si>
-  <si>
-    <t>cocazsj@sina.com</t>
-  </si>
-  <si>
-    <t>20792297@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海安范商贸有限公司</t>
-  </si>
-  <si>
-    <t>535937939@qq.com</t>
-  </si>
-  <si>
-    <t>20798469@bbraun.com</t>
-  </si>
-  <si>
-    <t>广州医盾宝医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>zwl999@gzyidunbao.com</t>
-  </si>
-  <si>
-    <t>20800693@bbraun.com</t>
-  </si>
-  <si>
-    <t>杭州康晟健康管理咨询有限公司</t>
-  </si>
-  <si>
-    <t>mingw@91jkys.com</t>
-  </si>
-  <si>
-    <t>20802376@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海康星医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>yu_wengao@163.com</t>
-  </si>
-  <si>
-    <t>20817291@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海钧霖医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>yue_jun77@163.com</t>
-  </si>
-  <si>
-    <t>20823748@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海泽庶医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>shihu.huo@zeshuyl.com</t>
-  </si>
-  <si>
-    <t>20824271@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海祁连仲医疗器械销售中心</t>
-  </si>
-  <si>
-    <t>qilianzhong2014@163.com</t>
-  </si>
-  <si>
-    <t>20826245@bbraun.com</t>
-  </si>
-  <si>
-    <t>南京纳德国际贸易有限公司</t>
-  </si>
-  <si>
-    <t>njyk06@126.com</t>
-  </si>
-  <si>
-    <t>20826566@bbraun.com</t>
-  </si>
-  <si>
-    <t>北京鑫紫竹兴业医疗器械股份有限公司</t>
-  </si>
-  <si>
-    <t>xdong@vip.163.com</t>
-  </si>
-  <si>
-    <t>20829797@bbraun.com</t>
-  </si>
-  <si>
-    <t>海王共图（北京）医疗设备有限公司</t>
-  </si>
-  <si>
-    <t>fanjun@goal-tech.com</t>
-  </si>
-  <si>
-    <t>20835691@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海奥懿电子商务有限公司</t>
-  </si>
-  <si>
-    <t>yi.li@eosi.com.cn</t>
-  </si>
-  <si>
-    <t>20837949@bbraun.com</t>
-  </si>
-  <si>
-    <t>杭州奥健医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>150309865@qq.com</t>
-  </si>
-  <si>
-    <t>20838616@bbraun.com</t>
-  </si>
-  <si>
-    <t>北京海吉纳医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>hjn163@163.com</t>
-  </si>
-  <si>
-    <t>20840679@bbraun.com</t>
-  </si>
-  <si>
-    <t>北京恒通宝源科技有限公司</t>
-  </si>
-  <si>
-    <t>1012643471@qq.com</t>
-  </si>
-  <si>
-    <t>20841945@bbraun.com</t>
-  </si>
-  <si>
-    <t>河南华益药业有限责任公司</t>
-  </si>
-  <si>
-    <t>qf111222@126.com</t>
-  </si>
-  <si>
-    <t>20843846@bbraun.com</t>
-  </si>
-  <si>
-    <t>天津金立健科技有限公司</t>
-  </si>
-  <si>
-    <t>3260905136@qq.com</t>
-  </si>
-  <si>
-    <t>20843847@bbraun.com</t>
-  </si>
-  <si>
-    <t>河北万可诺医疗器械销售有限公司</t>
-  </si>
-  <si>
-    <t>18633010625@163.com</t>
-  </si>
-  <si>
-    <t>20844138@bbraun.com</t>
-  </si>
-  <si>
-    <t>瑞克倍尔（北京）科贸有限公司</t>
-  </si>
-  <si>
-    <t>ericshibj@rickbellco.com</t>
-  </si>
-  <si>
-    <t>20844838@bbraun.com</t>
-  </si>
-  <si>
-    <t>天津惠普丰益商贸有限公司</t>
-  </si>
-  <si>
-    <t>yuanjingchao_666@sina.com</t>
-  </si>
-  <si>
-    <t>20847188@bbraun.com</t>
-  </si>
-  <si>
-    <t>勒盛生物科技（上海）有限公司</t>
-  </si>
-  <si>
-    <t>larryblp@126.com</t>
-  </si>
-  <si>
-    <t>20855081@bbraun.com</t>
-  </si>
-  <si>
-    <t>徐州布彦安业商贸中心</t>
-  </si>
-  <si>
-    <t>lx@medicine-hl.com</t>
-  </si>
-  <si>
-    <t>20863069@bbraun.com</t>
-  </si>
-  <si>
-    <t>济南祥丰医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>jnxfyl@126.com</t>
-  </si>
-  <si>
-    <t>20863586@bbraun.com</t>
-  </si>
-  <si>
-    <t>江苏米康医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>mimedical@126.com</t>
-  </si>
-  <si>
-    <t>20866700@bbraun.com</t>
-  </si>
-  <si>
-    <t>广东昊康医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>383821567@qq.com</t>
-  </si>
-  <si>
-    <t>20868218@bbraun.com</t>
-  </si>
-  <si>
-    <t>瑞思波特医药科技有限公司</t>
-  </si>
-  <si>
-    <t>3057527929@qq.com</t>
-  </si>
-  <si>
-    <t>20868953@bbraun.com</t>
-  </si>
-  <si>
-    <t>广州隆睿贸易有限公司</t>
-  </si>
-  <si>
-    <t>loongree@163.com</t>
-  </si>
-  <si>
-    <t>20869266@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海凤翱电子商务有限公司</t>
-  </si>
-  <si>
-    <t>phoenixsoar@163.com</t>
-  </si>
-  <si>
-    <t>20869485@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海秀微医疗器械销售中心</t>
-  </si>
-  <si>
-    <t>xwt8877@163.com</t>
-  </si>
-  <si>
-    <t>20870548@bbraun.com</t>
-  </si>
-  <si>
-    <t>江西巨方远影科技有限公司</t>
-  </si>
-  <si>
-    <t>yongwen.yuan@jufangmsp.com</t>
-  </si>
-  <si>
-    <t>20871206@bbraun.com</t>
-  </si>
-  <si>
-    <t>北京力博昌虹医疗器械科技发展有限公司</t>
-  </si>
-  <si>
-    <t>13910812585@139.com</t>
-  </si>
-  <si>
-    <t>20872283@bbraun.com</t>
-  </si>
-  <si>
-    <t>上海健途生物科技有限公司</t>
-  </si>
-  <si>
-    <t>welldonesh@sina.com</t>
-  </si>
-  <si>
-    <t>20872831@bbraun.com</t>
-  </si>
-  <si>
-    <t>合肥市迈通医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>zhangyl@mountmedical.cn</t>
-  </si>
-  <si>
-    <t>20875646@bbraun.com</t>
-  </si>
-  <si>
-    <t>SAP Code</t>
-  </si>
-  <si>
-    <t>经销商名称</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>经销商邮箱</t>
-  </si>
-  <si>
-    <t>登录账号</t>
-  </si>
-  <si>
-    <t>DSD</t>
-  </si>
-  <si>
-    <t>NE</t>
   </si>
   <si>
     <t>NEEQ</t>
@@ -2411,11 +2417,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2464,14 +2470,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2487,10 +2485,38 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2509,31 +2535,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2547,8 +2551,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2562,14 +2581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2577,36 +2588,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2617,8 +2609,22 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2645,49 +2651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,7 +2675,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,13 +2741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2735,7 +2765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,31 +2789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2783,49 +2819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,6 +2902,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2932,161 +2956,131 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3094,22 +3088,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -9048,7 +9042,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomRight" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -12467,7 +12461,7 @@
         <v>403</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D4" t="s">
         <v>405</v>
@@ -12484,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -12495,7 +12489,7 @@
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -12512,7 +12506,7 @@
         <v>506</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D7" t="s">
         <v>508</v>
@@ -12529,7 +12523,7 @@
         <v>510</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D8" t="s">
         <v>511</v>
@@ -12546,7 +12540,7 @@
         <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D9" t="s">
         <v>408</v>
@@ -12563,7 +12557,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -12580,7 +12574,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -12597,7 +12591,7 @@
         <v>513</v>
       </c>
       <c r="C12" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D12" t="s">
         <v>514</v>
@@ -12614,7 +12608,7 @@
         <v>516</v>
       </c>
       <c r="C13" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D13" t="s">
         <v>517</v>
@@ -12631,7 +12625,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -12648,7 +12642,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -12665,7 +12659,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12682,7 +12676,7 @@
         <v>519</v>
       </c>
       <c r="C17" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D17" t="s">
         <v>520</v>
@@ -12699,7 +12693,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -12716,7 +12710,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -12733,7 +12727,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -12750,7 +12744,7 @@
         <v>522</v>
       </c>
       <c r="C21" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D21" t="s">
         <v>523</v>
@@ -12767,7 +12761,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -12784,7 +12778,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -12795,7 +12789,7 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -12812,7 +12806,7 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -12829,7 +12823,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -12846,7 +12840,7 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -12863,7 +12857,7 @@
         <v>525</v>
       </c>
       <c r="C28" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D28" t="s">
         <v>526</v>
@@ -12880,7 +12874,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
@@ -12897,7 +12891,7 @@
         <v>528</v>
       </c>
       <c r="C30" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D30" t="s">
         <v>529</v>
@@ -12914,7 +12908,7 @@
         <v>410</v>
       </c>
       <c r="C31" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D31" t="s">
         <v>411</v>
@@ -12931,7 +12925,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -12948,10 +12942,10 @@
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D33" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E33" t="s">
         <v>51</v>
@@ -12965,7 +12959,7 @@
         <v>531</v>
       </c>
       <c r="C34" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D34" t="s">
         <v>532</v>
@@ -12982,7 +12976,7 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D35" t="s">
         <v>53</v>
@@ -12999,7 +12993,7 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
@@ -13016,7 +13010,7 @@
         <v>534</v>
       </c>
       <c r="C37" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D37" t="s">
         <v>535</v>
@@ -13033,7 +13027,7 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D38" t="s">
         <v>59</v>
@@ -13050,7 +13044,7 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D39" t="s">
         <v>62</v>
@@ -13067,7 +13061,7 @@
         <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -13078,7 +13072,7 @@
     </row>
     <row r="41" spans="3:5">
       <c r="C41" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D41" t="s">
         <v>65</v>
@@ -13095,7 +13089,7 @@
         <v>537</v>
       </c>
       <c r="C42" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D42" t="s">
         <v>538</v>
@@ -13112,7 +13106,7 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
@@ -13129,7 +13123,7 @@
         <v>540</v>
       </c>
       <c r="C44" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D44" t="s">
         <v>541</v>
@@ -13146,7 +13140,7 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D45" t="s">
         <v>71</v>
@@ -13163,7 +13157,7 @@
         <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D46" t="s">
         <v>74</v>
@@ -13180,7 +13174,7 @@
         <v>543</v>
       </c>
       <c r="C47" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D47" t="s">
         <v>544</v>
@@ -13197,7 +13191,7 @@
         <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D48" t="s">
         <v>77</v>
@@ -13214,7 +13208,7 @@
         <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -13231,7 +13225,7 @@
         <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D50" t="s">
         <v>83</v>
@@ -13248,7 +13242,7 @@
         <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D51" t="s">
         <v>86</v>
@@ -13265,7 +13259,7 @@
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D52" t="s">
         <v>89</v>
@@ -13282,7 +13276,7 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D53" t="s">
         <v>92</v>
@@ -13299,7 +13293,7 @@
         <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D54" t="s">
         <v>95</v>
@@ -13316,7 +13310,7 @@
         <v>546</v>
       </c>
       <c r="C55" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D55" t="s">
         <v>547</v>
@@ -13333,7 +13327,7 @@
         <v>549</v>
       </c>
       <c r="C56" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D56" t="s">
         <v>550</v>
@@ -13350,7 +13344,7 @@
         <v>396</v>
       </c>
       <c r="C57" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D57" t="s">
         <v>398</v>
@@ -13361,10 +13355,10 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C58" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D58" t="s">
         <v>398</v>
@@ -13381,7 +13375,7 @@
         <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D59" t="s">
         <v>98</v>
@@ -13398,7 +13392,7 @@
         <v>552</v>
       </c>
       <c r="C60" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D60" t="s">
         <v>553</v>
@@ -13415,7 +13409,7 @@
         <v>555</v>
       </c>
       <c r="C61" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D61" t="s">
         <v>556</v>
@@ -13432,7 +13426,7 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D62" t="s">
         <v>101</v>
@@ -13449,7 +13443,7 @@
         <v>558</v>
       </c>
       <c r="C63" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D63" t="s">
         <v>559</v>
@@ -13466,7 +13460,7 @@
         <v>561</v>
       </c>
       <c r="C64" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D64" t="s">
         <v>562</v>
@@ -13483,7 +13477,7 @@
         <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D65" t="s">
         <v>104</v>
@@ -13500,7 +13494,7 @@
         <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D66" t="s">
         <v>107</v>
@@ -13517,7 +13511,7 @@
         <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D67" t="s">
         <v>110</v>
@@ -13534,7 +13528,7 @@
         <v>564</v>
       </c>
       <c r="C68" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D68" t="s">
         <v>565</v>
@@ -13551,10 +13545,10 @@
         <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D69" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E69" t="s">
         <v>114</v>
@@ -13562,7 +13556,7 @@
     </row>
     <row r="70" spans="3:5">
       <c r="C70" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D70" t="s">
         <v>113</v>
@@ -13573,7 +13567,7 @@
     </row>
     <row r="71" spans="3:5">
       <c r="C71" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D71" t="s">
         <v>113</v>
@@ -13584,13 +13578,13 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C72" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D72" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E72" t="s">
         <v>114</v>
@@ -13604,7 +13598,7 @@
         <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D73" t="s">
         <v>116</v>
@@ -13621,7 +13615,7 @@
         <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D74" t="s">
         <v>119</v>
@@ -13638,7 +13632,7 @@
         <v>567</v>
       </c>
       <c r="C75" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D75" t="s">
         <v>568</v>
@@ -13655,7 +13649,7 @@
         <v>413</v>
       </c>
       <c r="C76" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D76" t="s">
         <v>414</v>
@@ -13672,7 +13666,7 @@
         <v>416</v>
       </c>
       <c r="C77" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D77" t="s">
         <v>417</v>
@@ -13689,7 +13683,7 @@
         <v>419</v>
       </c>
       <c r="C78" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D78" t="s">
         <v>420</v>
@@ -13706,7 +13700,7 @@
         <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D79" t="s">
         <v>44</v>
@@ -13723,7 +13717,7 @@
         <v>570</v>
       </c>
       <c r="C80" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D80" t="s">
         <v>571</v>
@@ -13740,7 +13734,7 @@
         <v>573</v>
       </c>
       <c r="C81" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D81" t="s">
         <v>574</v>
@@ -13757,7 +13751,7 @@
         <v>123</v>
       </c>
       <c r="C82" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D82" t="s">
         <v>124</v>
@@ -13774,7 +13768,7 @@
         <v>422</v>
       </c>
       <c r="C83" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D83" t="s">
         <v>423</v>
@@ -13791,7 +13785,7 @@
         <v>576</v>
       </c>
       <c r="C84" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D84" t="s">
         <v>577</v>
@@ -13808,7 +13802,7 @@
         <v>425</v>
       </c>
       <c r="C85" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D85" t="s">
         <v>426</v>
@@ -13825,7 +13819,7 @@
         <v>428</v>
       </c>
       <c r="C86" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D86" t="s">
         <v>429</v>
@@ -13842,7 +13836,7 @@
         <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D87" t="s">
         <v>127</v>
@@ -13853,7 +13847,7 @@
     </row>
     <row r="88" spans="3:5">
       <c r="C88" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D88" t="s">
         <v>127</v>
@@ -13870,7 +13864,7 @@
         <v>579</v>
       </c>
       <c r="C89" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D89" t="s">
         <v>580</v>
@@ -13887,7 +13881,7 @@
         <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D90" t="s">
         <v>130</v>
@@ -13904,7 +13898,7 @@
         <v>582</v>
       </c>
       <c r="C91" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D91" t="s">
         <v>583</v>
@@ -13921,7 +13915,7 @@
         <v>585</v>
       </c>
       <c r="C92" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D92" t="s">
         <v>586</v>
@@ -13938,7 +13932,7 @@
         <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D93" t="s">
         <v>133</v>
@@ -13955,7 +13949,7 @@
         <v>588</v>
       </c>
       <c r="C94" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D94" t="s">
         <v>589</v>
@@ -13972,7 +13966,7 @@
         <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D95" t="s">
         <v>136</v>
@@ -13989,7 +13983,7 @@
         <v>591</v>
       </c>
       <c r="C96" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D96" t="s">
         <v>592</v>
@@ -14006,7 +14000,7 @@
         <v>594</v>
       </c>
       <c r="C97" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D97" t="s">
         <v>595</v>
@@ -14023,7 +14017,7 @@
         <v>431</v>
       </c>
       <c r="C98" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D98" t="s">
         <v>432</v>
@@ -14040,7 +14034,7 @@
         <v>597</v>
       </c>
       <c r="C99" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D99" t="s">
         <v>598</v>
@@ -14057,7 +14051,7 @@
         <v>600</v>
       </c>
       <c r="C100" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D100" t="s">
         <v>601</v>
@@ -14074,7 +14068,7 @@
         <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D101" t="s">
         <v>139</v>
@@ -14091,7 +14085,7 @@
         <v>603</v>
       </c>
       <c r="C102" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D102" t="s">
         <v>604</v>
@@ -14108,7 +14102,7 @@
         <v>606</v>
       </c>
       <c r="C103" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D103" t="s">
         <v>607</v>
@@ -14125,7 +14119,7 @@
         <v>609</v>
       </c>
       <c r="C104" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D104" t="s">
         <v>610</v>
@@ -14142,7 +14136,7 @@
         <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D105" t="s">
         <v>142</v>
@@ -14159,7 +14153,7 @@
         <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D106" t="s">
         <v>145</v>
@@ -14176,7 +14170,7 @@
         <v>147</v>
       </c>
       <c r="C107" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D107" t="s">
         <v>148</v>
@@ -14193,7 +14187,7 @@
         <v>434</v>
       </c>
       <c r="C108" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D108" t="s">
         <v>435</v>
@@ -14210,7 +14204,7 @@
         <v>437</v>
       </c>
       <c r="C109" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D109" t="s">
         <v>438</v>
@@ -14227,7 +14221,7 @@
         <v>440</v>
       </c>
       <c r="C110" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D110" t="s">
         <v>441</v>
@@ -14244,7 +14238,7 @@
         <v>150</v>
       </c>
       <c r="C111" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D111" t="s">
         <v>151</v>
@@ -14261,7 +14255,7 @@
         <v>612</v>
       </c>
       <c r="C112" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D112" t="s">
         <v>613</v>
@@ -14278,7 +14272,7 @@
         <v>443</v>
       </c>
       <c r="C113" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D113" t="s">
         <v>444</v>
@@ -14295,7 +14289,7 @@
         <v>153</v>
       </c>
       <c r="C114" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D114" t="s">
         <v>154</v>
@@ -14312,7 +14306,7 @@
         <v>156</v>
       </c>
       <c r="C115" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D115" t="s">
         <v>157</v>
@@ -14329,7 +14323,7 @@
         <v>615</v>
       </c>
       <c r="C116" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D116" t="s">
         <v>616</v>
@@ -14346,7 +14340,7 @@
         <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D117" t="s">
         <v>160</v>
@@ -14363,7 +14357,7 @@
         <v>618</v>
       </c>
       <c r="C118" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D118" t="s">
         <v>619</v>
@@ -14380,7 +14374,7 @@
         <v>621</v>
       </c>
       <c r="C119" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D119" t="s">
         <v>622</v>
@@ -14397,7 +14391,7 @@
         <v>162</v>
       </c>
       <c r="C120" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D120" t="s">
         <v>163</v>
@@ -14414,10 +14408,10 @@
         <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D121" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E121" t="s">
         <v>395</v>
@@ -14425,7 +14419,7 @@
     </row>
     <row r="122" spans="3:5">
       <c r="C122" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D122" t="s">
         <v>394</v>
@@ -14442,7 +14436,7 @@
         <v>624</v>
       </c>
       <c r="C123" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D123" t="s">
         <v>625</v>
@@ -14459,7 +14453,7 @@
         <v>165</v>
       </c>
       <c r="C124" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D124" t="s">
         <v>166</v>
@@ -14476,7 +14470,7 @@
         <v>168</v>
       </c>
       <c r="C125" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D125" t="s">
         <v>169</v>
@@ -14493,7 +14487,7 @@
         <v>446</v>
       </c>
       <c r="C126" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D126" t="s">
         <v>447</v>
@@ -14510,7 +14504,7 @@
         <v>627</v>
       </c>
       <c r="C127" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D127" t="s">
         <v>628</v>
@@ -14527,7 +14521,7 @@
         <v>630</v>
       </c>
       <c r="C128" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D128" t="s">
         <v>631</v>
@@ -14544,7 +14538,7 @@
         <v>171</v>
       </c>
       <c r="C129" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D129" t="s">
         <v>172</v>
@@ -14561,7 +14555,7 @@
         <v>633</v>
       </c>
       <c r="C130" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D130" t="s">
         <v>634</v>
@@ -14578,10 +14572,10 @@
         <v>400</v>
       </c>
       <c r="C131" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D131" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E131" t="s">
         <v>402</v>
@@ -14589,7 +14583,7 @@
     </row>
     <row r="132" spans="3:5">
       <c r="C132" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D132" t="s">
         <v>401</v>
@@ -14606,7 +14600,7 @@
         <v>449</v>
       </c>
       <c r="C133" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D133" t="s">
         <v>450</v>
@@ -14623,7 +14617,7 @@
         <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D134" t="s">
         <v>175</v>
@@ -14640,7 +14634,7 @@
         <v>177</v>
       </c>
       <c r="C135" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D135" t="s">
         <v>178</v>
@@ -14657,7 +14651,7 @@
         <v>452</v>
       </c>
       <c r="C136" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D136" t="s">
         <v>453</v>
@@ -14674,7 +14668,7 @@
         <v>180</v>
       </c>
       <c r="C137" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D137" t="s">
         <v>181</v>
@@ -14691,7 +14685,7 @@
         <v>183</v>
       </c>
       <c r="C138" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D138" t="s">
         <v>184</v>
@@ -14708,7 +14702,7 @@
         <v>636</v>
       </c>
       <c r="C139" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D139" t="s">
         <v>637</v>
@@ -14725,7 +14719,7 @@
         <v>186</v>
       </c>
       <c r="C140" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D140" t="s">
         <v>187</v>
@@ -14742,7 +14736,7 @@
         <v>189</v>
       </c>
       <c r="C141" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D141" t="s">
         <v>190</v>
@@ -14759,7 +14753,7 @@
         <v>455</v>
       </c>
       <c r="C142" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D142" t="s">
         <v>456</v>
@@ -14776,7 +14770,7 @@
         <v>639</v>
       </c>
       <c r="C143" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D143" t="s">
         <v>640</v>
@@ -14793,7 +14787,7 @@
         <v>458</v>
       </c>
       <c r="C144" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D144" t="s">
         <v>459</v>
@@ -14810,7 +14804,7 @@
         <v>642</v>
       </c>
       <c r="C145" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D145" t="s">
         <v>643</v>
@@ -14827,7 +14821,7 @@
         <v>192</v>
       </c>
       <c r="C146" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D146" t="s">
         <v>193</v>
@@ -14844,7 +14838,7 @@
         <v>645</v>
       </c>
       <c r="C147" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D147" t="s">
         <v>646</v>
@@ -14861,7 +14855,7 @@
         <v>195</v>
       </c>
       <c r="C148" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D148" t="s">
         <v>196</v>
@@ -14878,7 +14872,7 @@
         <v>461</v>
       </c>
       <c r="C149" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D149" t="s">
         <v>462</v>
@@ -14895,7 +14889,7 @@
         <v>198</v>
       </c>
       <c r="C150" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D150" t="s">
         <v>199</v>
@@ -14912,7 +14906,7 @@
         <v>648</v>
       </c>
       <c r="C151" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D151" t="s">
         <v>649</v>
@@ -14929,7 +14923,7 @@
         <v>201</v>
       </c>
       <c r="C152" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D152" t="s">
         <v>202</v>
@@ -14946,7 +14940,7 @@
         <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D153" t="s">
         <v>205</v>
@@ -14963,7 +14957,7 @@
         <v>464</v>
       </c>
       <c r="C154" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D154" t="s">
         <v>465</v>
@@ -14980,7 +14974,7 @@
         <v>651</v>
       </c>
       <c r="C155" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D155" t="s">
         <v>652</v>
@@ -14997,7 +14991,7 @@
         <v>207</v>
       </c>
       <c r="C156" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D156" t="s">
         <v>208</v>
@@ -15014,7 +15008,7 @@
         <v>210</v>
       </c>
       <c r="C157" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D157" t="s">
         <v>211</v>
@@ -15031,7 +15025,7 @@
         <v>467</v>
       </c>
       <c r="C158" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D158" t="s">
         <v>468</v>
@@ -15048,7 +15042,7 @@
         <v>213</v>
       </c>
       <c r="C159" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D159" t="s">
         <v>214</v>
@@ -15065,7 +15059,7 @@
         <v>216</v>
       </c>
       <c r="C160" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D160" t="s">
         <v>217</v>
@@ -15076,7 +15070,7 @@
     </row>
     <row r="161" spans="3:5">
       <c r="C161" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D161" t="s">
         <v>217</v>
@@ -15093,7 +15087,7 @@
         <v>470</v>
       </c>
       <c r="C162" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D162" t="s">
         <v>471</v>
@@ -15110,7 +15104,7 @@
         <v>219</v>
       </c>
       <c r="C163" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D163" t="s">
         <v>220</v>
@@ -15127,7 +15121,7 @@
         <v>222</v>
       </c>
       <c r="C164" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D164" t="s">
         <v>223</v>
@@ -15144,7 +15138,7 @@
         <v>225</v>
       </c>
       <c r="C165" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D165" t="s">
         <v>226</v>
@@ -15161,7 +15155,7 @@
         <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D166" t="s">
         <v>229</v>
@@ -15178,7 +15172,7 @@
         <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D167" t="s">
         <v>232</v>
@@ -15195,7 +15189,7 @@
         <v>234</v>
       </c>
       <c r="C168" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D168" t="s">
         <v>235</v>
@@ -15212,7 +15206,7 @@
         <v>237</v>
       </c>
       <c r="C169" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D169" t="s">
         <v>238</v>
@@ -15229,7 +15223,7 @@
         <v>240</v>
       </c>
       <c r="C170" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D170" t="s">
         <v>241</v>
@@ -15246,7 +15240,7 @@
         <v>243</v>
       </c>
       <c r="C171" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D171" t="s">
         <v>244</v>
@@ -15263,7 +15257,7 @@
         <v>654</v>
       </c>
       <c r="C172" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D172" t="s">
         <v>655</v>
@@ -15280,7 +15274,7 @@
         <v>246</v>
       </c>
       <c r="C173" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D173" t="s">
         <v>247</v>
@@ -15297,7 +15291,7 @@
         <v>249</v>
       </c>
       <c r="C174" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D174" t="s">
         <v>250</v>
@@ -15314,7 +15308,7 @@
         <v>657</v>
       </c>
       <c r="C175" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D175" t="s">
         <v>658</v>
@@ -15331,7 +15325,7 @@
         <v>252</v>
       </c>
       <c r="C176" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D176" t="s">
         <v>253</v>
@@ -15348,7 +15342,7 @@
         <v>255</v>
       </c>
       <c r="C177" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D177" t="s">
         <v>256</v>
@@ -15365,7 +15359,7 @@
         <v>660</v>
       </c>
       <c r="C178" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D178" t="s">
         <v>661</v>
@@ -15382,7 +15376,7 @@
         <v>258</v>
       </c>
       <c r="C179" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D179" t="s">
         <v>259</v>
@@ -15399,7 +15393,7 @@
         <v>261</v>
       </c>
       <c r="C180" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D180" t="s">
         <v>262</v>
@@ -15410,7 +15404,7 @@
     </row>
     <row r="181" spans="3:5">
       <c r="C181" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D181" t="s">
         <v>262</v>
@@ -15427,7 +15421,7 @@
         <v>264</v>
       </c>
       <c r="C182" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D182" t="s">
         <v>265</v>
@@ -15444,7 +15438,7 @@
         <v>473</v>
       </c>
       <c r="C183" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D183" t="s">
         <v>474</v>
@@ -15461,7 +15455,7 @@
         <v>267</v>
       </c>
       <c r="C184" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D184" t="s">
         <v>268</v>
@@ -15478,7 +15472,7 @@
         <v>270</v>
       </c>
       <c r="C185" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D185" t="s">
         <v>271</v>
@@ -15495,7 +15489,7 @@
         <v>663</v>
       </c>
       <c r="C186" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D186" t="s">
         <v>664</v>
@@ -15512,7 +15506,7 @@
         <v>273</v>
       </c>
       <c r="C187" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D187" t="s">
         <v>274</v>
@@ -15529,7 +15523,7 @@
         <v>476</v>
       </c>
       <c r="C188" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D188" t="s">
         <v>477</v>
@@ -15546,7 +15540,7 @@
         <v>666</v>
       </c>
       <c r="C189" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D189" t="s">
         <v>667</v>
@@ -15563,7 +15557,7 @@
         <v>276</v>
       </c>
       <c r="C190" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D190" t="s">
         <v>277</v>
@@ -15580,7 +15574,7 @@
         <v>279</v>
       </c>
       <c r="C191" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D191" t="s">
         <v>280</v>
@@ -15597,7 +15591,7 @@
         <v>282</v>
       </c>
       <c r="C192" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D192" t="s">
         <v>283</v>
@@ -15614,7 +15608,7 @@
         <v>285</v>
       </c>
       <c r="C193" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D193" t="s">
         <v>286</v>
@@ -15631,7 +15625,7 @@
         <v>288</v>
       </c>
       <c r="C194" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D194" t="s">
         <v>289</v>
@@ -15648,7 +15642,7 @@
         <v>291</v>
       </c>
       <c r="C195" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D195" t="s">
         <v>292</v>
@@ -15665,7 +15659,7 @@
         <v>669</v>
       </c>
       <c r="C196" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D196" t="s">
         <v>670</v>
@@ -15682,7 +15676,7 @@
         <v>672</v>
       </c>
       <c r="C197" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D197" t="s">
         <v>673</v>
@@ -15699,7 +15693,7 @@
         <v>294</v>
       </c>
       <c r="C198" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D198" t="s">
         <v>295</v>
@@ -15716,7 +15710,7 @@
         <v>675</v>
       </c>
       <c r="C199" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D199" t="s">
         <v>676</v>
@@ -15733,7 +15727,7 @@
         <v>297</v>
       </c>
       <c r="C200" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D200" t="s">
         <v>298</v>
@@ -15750,7 +15744,7 @@
         <v>300</v>
       </c>
       <c r="C201" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D201" t="s">
         <v>301</v>
@@ -15767,7 +15761,7 @@
         <v>678</v>
       </c>
       <c r="C202" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D202" t="s">
         <v>679</v>
@@ -15784,7 +15778,7 @@
         <v>479</v>
       </c>
       <c r="C203" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D203" t="s">
         <v>480</v>
@@ -15801,7 +15795,7 @@
         <v>482</v>
       </c>
       <c r="C204" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D204" t="s">
         <v>483</v>
@@ -15818,7 +15812,7 @@
         <v>681</v>
       </c>
       <c r="C205" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D205" t="s">
         <v>682</v>
@@ -15835,7 +15829,7 @@
         <v>303</v>
       </c>
       <c r="C206" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D206" t="s">
         <v>304</v>
@@ -15852,7 +15846,7 @@
         <v>485</v>
       </c>
       <c r="C207" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D207" t="s">
         <v>486</v>
@@ -15869,7 +15863,7 @@
         <v>488</v>
       </c>
       <c r="C208" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D208" t="s">
         <v>489</v>
@@ -15886,7 +15880,7 @@
         <v>306</v>
       </c>
       <c r="C209" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D209" t="s">
         <v>307</v>
@@ -15903,7 +15897,7 @@
         <v>309</v>
       </c>
       <c r="C210" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D210" t="s">
         <v>310</v>
@@ -15920,7 +15914,7 @@
         <v>312</v>
       </c>
       <c r="C211" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D211" t="s">
         <v>313</v>
@@ -15937,7 +15931,7 @@
         <v>491</v>
       </c>
       <c r="C212" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D212" t="s">
         <v>492</v>
@@ -15954,7 +15948,7 @@
         <v>494</v>
       </c>
       <c r="C213" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D213" t="s">
         <v>495</v>
@@ -15971,7 +15965,7 @@
         <v>315</v>
       </c>
       <c r="C214" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D214" t="s">
         <v>316</v>
@@ -15988,7 +15982,7 @@
         <v>318</v>
       </c>
       <c r="C215" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D215" t="s">
         <v>319</v>
@@ -16005,7 +15999,7 @@
         <v>684</v>
       </c>
       <c r="C216" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D216" t="s">
         <v>685</v>
@@ -16022,7 +16016,7 @@
         <v>321</v>
       </c>
       <c r="C217" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D217" t="s">
         <v>322</v>
@@ -16039,7 +16033,7 @@
         <v>497</v>
       </c>
       <c r="C218" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D218" t="s">
         <v>498</v>
@@ -16056,7 +16050,7 @@
         <v>324</v>
       </c>
       <c r="C219" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D219" t="s">
         <v>325</v>
@@ -16073,7 +16067,7 @@
         <v>327</v>
       </c>
       <c r="C220" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D220" t="s">
         <v>328</v>
@@ -16090,7 +16084,7 @@
         <v>330</v>
       </c>
       <c r="C221" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D221" t="s">
         <v>331</v>
@@ -16107,7 +16101,7 @@
         <v>333</v>
       </c>
       <c r="C222" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D222" t="s">
         <v>334</v>
@@ -16124,7 +16118,7 @@
         <v>336</v>
       </c>
       <c r="C223" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D223" t="s">
         <v>337</v>
@@ -16141,7 +16135,7 @@
         <v>339</v>
       </c>
       <c r="C224" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D224" t="s">
         <v>340</v>
@@ -16158,7 +16152,7 @@
         <v>687</v>
       </c>
       <c r="C225" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D225" t="s">
         <v>688</v>
@@ -16175,7 +16169,7 @@
         <v>690</v>
       </c>
       <c r="C226" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D226" t="s">
         <v>691</v>
@@ -16192,7 +16186,7 @@
         <v>500</v>
       </c>
       <c r="C227" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D227" t="s">
         <v>501</v>
@@ -16209,7 +16203,7 @@
         <v>503</v>
       </c>
       <c r="C228" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D228" t="s">
         <v>504</v>
@@ -16226,7 +16220,7 @@
         <v>693</v>
       </c>
       <c r="C229" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D229" t="s">
         <v>694</v>
@@ -16243,7 +16237,7 @@
         <v>696</v>
       </c>
       <c r="C230" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D230" t="s">
         <v>697</v>
@@ -16260,7 +16254,7 @@
         <v>699</v>
       </c>
       <c r="C231" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D231" t="s">
         <v>700</v>
@@ -16277,7 +16271,7 @@
         <v>702</v>
       </c>
       <c r="C232" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D232" t="s">
         <v>703</v>
@@ -16294,7 +16288,7 @@
         <v>705</v>
       </c>
       <c r="C233" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D233" t="s">
         <v>706</v>
@@ -16311,7 +16305,7 @@
         <v>342</v>
       </c>
       <c r="C234" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D234" t="s">
         <v>343</v>
@@ -16328,7 +16322,7 @@
         <v>345</v>
       </c>
       <c r="C235" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D235" t="s">
         <v>346</v>
@@ -16345,7 +16339,7 @@
         <v>708</v>
       </c>
       <c r="C236" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D236" t="s">
         <v>709</v>
@@ -16362,7 +16356,7 @@
         <v>711</v>
       </c>
       <c r="C237" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D237" t="s">
         <v>712</v>
@@ -16379,7 +16373,7 @@
         <v>348</v>
       </c>
       <c r="C238" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D238" t="s">
         <v>349</v>
@@ -16396,7 +16390,7 @@
         <v>714</v>
       </c>
       <c r="C239" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D239" t="s">
         <v>715</v>
@@ -16413,7 +16407,7 @@
         <v>351</v>
       </c>
       <c r="C240" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D240" t="s">
         <v>352</v>
@@ -16430,7 +16424,7 @@
         <v>354</v>
       </c>
       <c r="C241" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D241" t="s">
         <v>355</v>
@@ -16447,7 +16441,7 @@
         <v>357</v>
       </c>
       <c r="C242" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D242" t="s">
         <v>358</v>
@@ -16464,7 +16458,7 @@
         <v>717</v>
       </c>
       <c r="C243" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D243" t="s">
         <v>718</v>
@@ -16481,7 +16475,7 @@
         <v>360</v>
       </c>
       <c r="C244" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D244" t="s">
         <v>361</v>
@@ -16498,7 +16492,7 @@
         <v>363</v>
       </c>
       <c r="C245" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D245" t="s">
         <v>364</v>
@@ -16515,7 +16509,7 @@
         <v>366</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D246" t="s">
         <v>367</v>
@@ -16532,7 +16526,7 @@
         <v>369</v>
       </c>
       <c r="C247" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D247" t="s">
         <v>370</v>
@@ -16549,7 +16543,7 @@
         <v>372</v>
       </c>
       <c r="C248" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D248" t="s">
         <v>373</v>
@@ -16566,7 +16560,7 @@
         <v>375</v>
       </c>
       <c r="C249" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D249" t="s">
         <v>376</v>
@@ -16583,7 +16577,7 @@
         <v>378</v>
       </c>
       <c r="C250" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D250" t="s">
         <v>379</v>
@@ -16600,7 +16594,7 @@
         <v>381</v>
       </c>
       <c r="C251" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D251" t="s">
         <v>382</v>
@@ -16617,7 +16611,7 @@
         <v>384</v>
       </c>
       <c r="C252" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D252" t="s">
         <v>385</v>
@@ -16634,7 +16628,7 @@
         <v>720</v>
       </c>
       <c r="C253" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D253" t="s">
         <v>721</v>
@@ -16651,7 +16645,7 @@
         <v>387</v>
       </c>
       <c r="C254" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D254" t="s">
         <v>50</v>
@@ -16662,7 +16656,7 @@
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -16720,7 +16714,7 @@
         <v>573</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>574</v>
@@ -16733,7 +16727,7 @@
         <v>20727097</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -16744,7 +16738,7 @@
         <v>519</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>520</v>
@@ -16757,7 +16751,7 @@
         <v>20385530</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -16768,7 +16762,7 @@
         <v>588</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>589</v>
@@ -16781,7 +16775,7 @@
         <v>20746038</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -16792,7 +16786,7 @@
         <v>540</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>541</v>
@@ -16805,7 +16799,7 @@
         <v>20580709</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -16816,7 +16810,7 @@
         <v>570</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>571</v>
@@ -16829,7 +16823,7 @@
         <v>20720963</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -16840,7 +16834,7 @@
         <v>516</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>517</v>
@@ -16853,7 +16847,7 @@
         <v>20278784</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -16864,7 +16858,7 @@
         <v>654</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>655</v>
@@ -16877,7 +16871,7 @@
         <v>20835691</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -16888,7 +16882,7 @@
         <v>543</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>544</v>
@@ -16901,7 +16895,7 @@
         <v>20586867</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -16912,7 +16906,7 @@
         <v>525</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>526</v>
@@ -16925,7 +16919,7 @@
         <v>20517062</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -16936,7 +16930,7 @@
         <v>510</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>511</v>
@@ -16949,7 +16943,7 @@
         <v>20251269</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16960,7 +16954,7 @@
         <v>564</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>565</v>
@@ -16973,7 +16967,7 @@
         <v>20678967</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -16984,7 +16978,7 @@
         <v>522</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>523</v>
@@ -16997,7 +16991,7 @@
         <v>20434927</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -17008,7 +17002,7 @@
         <v>549</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>550</v>
@@ -17021,7 +17015,7 @@
         <v>20627308</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -17032,7 +17026,7 @@
         <v>555</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>556</v>
@@ -17045,7 +17039,7 @@
         <v>20638416</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -17056,7 +17050,7 @@
         <v>567</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>568</v>
@@ -17069,7 +17063,7 @@
         <v>20695133</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -17080,7 +17074,7 @@
         <v>561</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>562</v>
@@ -17093,7 +17087,7 @@
         <v>20648586</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -17104,7 +17098,7 @@
         <v>600</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>601</v>
@@ -17117,7 +17111,7 @@
         <v>20750299</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -17128,7 +17122,7 @@
         <v>591</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>592</v>
@@ -17141,7 +17135,7 @@
         <v>20747349</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:7">
@@ -17152,7 +17146,7 @@
         <v>621</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>622</v>
@@ -17165,7 +17159,7 @@
         <v>20785213</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -17176,7 +17170,7 @@
         <v>579</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>580</v>
@@ -17189,7 +17183,7 @@
         <v>20742843</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -17200,7 +17194,7 @@
         <v>576</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>577</v>
@@ -17213,7 +17207,7 @@
         <v>20741433</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -17224,7 +17218,7 @@
         <v>594</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>595</v>
@@ -17237,7 +17231,7 @@
         <v>20747777</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -17248,7 +17242,7 @@
         <v>597</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>598</v>
@@ -17261,7 +17255,7 @@
         <v>20750298</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -17272,7 +17266,7 @@
         <v>603</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>604</v>
@@ -17285,7 +17279,7 @@
         <v>20750970</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -17296,7 +17290,7 @@
         <v>609</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>610</v>
@@ -17309,7 +17303,7 @@
         <v>20754274</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -17320,7 +17314,7 @@
         <v>606</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>607</v>
@@ -17333,7 +17327,7 @@
         <v>20754273</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -17344,7 +17338,7 @@
         <v>513</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>514</v>
@@ -17357,7 +17351,7 @@
         <v>20277745</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -17368,7 +17362,7 @@
         <v>612</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>613</v>
@@ -17381,7 +17375,7 @@
         <v>20765650</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -17392,7 +17386,7 @@
         <v>615</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>616</v>
@@ -17405,7 +17399,7 @@
         <v>20772592</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -17416,7 +17410,7 @@
         <v>624</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>625</v>
@@ -17429,7 +17423,7 @@
         <v>20792297</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -17440,7 +17434,7 @@
         <v>630</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>631</v>
@@ -17453,7 +17447,7 @@
         <v>20800693</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -17464,7 +17458,7 @@
         <v>633</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>634</v>
@@ -17477,7 +17471,7 @@
         <v>20802376</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -17488,7 +17482,7 @@
         <v>400</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>401</v>
@@ -17501,7 +17495,7 @@
         <v>20805494</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -17512,7 +17506,7 @@
         <v>585</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>586</v>
@@ -17525,7 +17519,7 @@
         <v>20746032</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -17536,7 +17530,7 @@
         <v>636</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>637</v>
@@ -17549,7 +17543,7 @@
         <v>20817291</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -17560,7 +17554,7 @@
         <v>639</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>640</v>
@@ -17573,7 +17567,7 @@
         <v>20823748</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -17584,7 +17578,7 @@
         <v>552</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>553</v>
@@ -17597,7 +17591,7 @@
         <v>20632204</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -17608,7 +17602,7 @@
         <v>642</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>643</v>
@@ -17621,7 +17615,7 @@
         <v>20824271</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -17632,7 +17626,7 @@
         <v>645</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>646</v>
@@ -17645,7 +17639,7 @@
         <v>20826245</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -17656,7 +17650,7 @@
         <v>651</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>652</v>
@@ -17669,7 +17663,7 @@
         <v>20829797</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -17680,7 +17674,7 @@
         <v>537</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>538</v>
@@ -17693,7 +17687,7 @@
         <v>20577504</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -17704,7 +17698,7 @@
         <v>531</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>532</v>
@@ -17717,7 +17711,7 @@
         <v>20540017</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -17728,7 +17722,7 @@
         <v>506</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>508</v>
@@ -17741,7 +17735,7 @@
         <v>20251084</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -17752,7 +17746,7 @@
         <v>648</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>649</v>
@@ -17765,7 +17759,7 @@
         <v>20826566</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -17776,7 +17770,7 @@
         <v>687</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>688</v>
@@ -17789,7 +17783,7 @@
         <v>20863069</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -17800,7 +17794,7 @@
         <v>666</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>667</v>
@@ -17813,7 +17807,7 @@
         <v>20841945</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -17824,7 +17818,7 @@
         <v>663</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>664</v>
@@ -17837,7 +17831,7 @@
         <v>20840679</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -17848,7 +17842,7 @@
         <v>660</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>661</v>
@@ -17861,7 +17855,7 @@
         <v>20838616</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -17872,7 +17866,7 @@
         <v>558</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>559</v>
@@ -17885,7 +17879,7 @@
         <v>20643092</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -17896,7 +17890,7 @@
         <v>657</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>658</v>
@@ -17909,7 +17903,7 @@
         <v>20837949</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -17920,7 +17914,7 @@
         <v>675</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>676</v>
@@ -17933,7 +17927,7 @@
         <v>20844138</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -17944,7 +17938,7 @@
         <v>672</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>673</v>
@@ -17957,7 +17951,7 @@
         <v>20843847</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -17968,7 +17962,7 @@
         <v>678</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>679</v>
@@ -17981,7 +17975,7 @@
         <v>20844838</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -17992,7 +17986,7 @@
         <v>669</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>670</v>
@@ -18005,7 +17999,7 @@
         <v>20843846</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -18016,7 +18010,7 @@
         <v>681</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>682</v>
@@ -18029,7 +18023,7 @@
         <v>20847188</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -18040,7 +18034,7 @@
         <v>684</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>685</v>
@@ -18053,7 +18047,7 @@
         <v>20855081</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -18064,7 +18058,7 @@
         <v>705</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>706</v>
@@ -18077,7 +18071,7 @@
         <v>20869485</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -18088,7 +18082,7 @@
         <v>714</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>715</v>
@@ -18101,7 +18095,7 @@
         <v>20872283</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -18112,7 +18106,7 @@
         <v>582</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>583</v>
@@ -18125,7 +18119,7 @@
         <v>20746031</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="61" ht="28" spans="1:7">
@@ -18136,7 +18130,7 @@
         <v>711</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>712</v>
@@ -18149,7 +18143,7 @@
         <v>20871206</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -18160,7 +18154,7 @@
         <v>708</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>709</v>
@@ -18173,7 +18167,7 @@
         <v>20870548</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -18184,7 +18178,7 @@
         <v>546</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>547</v>
@@ -18197,7 +18191,7 @@
         <v>20626621</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -18208,7 +18202,7 @@
         <v>702</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>703</v>
@@ -18221,7 +18215,7 @@
         <v>20869266</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -18229,10 +18223,10 @@
         <v>20629583</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>398</v>
@@ -18245,7 +18239,7 @@
         <v>20629583</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -18256,7 +18250,7 @@
         <v>693</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>694</v>
@@ -18269,7 +18263,7 @@
         <v>20866700</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -18280,7 +18274,7 @@
         <v>696</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>697</v>
@@ -18293,7 +18287,7 @@
         <v>20868218</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -18304,7 +18298,7 @@
         <v>627</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>628</v>
@@ -18317,7 +18311,7 @@
         <v>20798469</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -18328,7 +18322,7 @@
         <v>690</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>691</v>
@@ -18341,7 +18335,7 @@
         <v>20863586</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -18352,7 +18346,7 @@
         <v>528</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>529</v>
@@ -18365,7 +18359,7 @@
         <v>20526227</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -18376,7 +18370,7 @@
         <v>699</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>700</v>
@@ -18389,7 +18383,7 @@
         <v>20868953</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -18400,7 +18394,7 @@
         <v>534</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>535</v>
@@ -18413,7 +18407,7 @@
         <v>20546968</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -18424,7 +18418,7 @@
         <v>720</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>721</v>
@@ -18437,7 +18431,7 @@
         <v>20875646</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -18448,7 +18442,7 @@
         <v>618</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>619</v>
@@ -18461,7 +18455,7 @@
         <v>20777157</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -18472,7 +18466,7 @@
         <v>717</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>718</v>
@@ -18485,7 +18479,7 @@
         <v>20872831</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -18496,7 +18490,7 @@
         <v>419</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>420</v>
@@ -18509,7 +18503,7 @@
         <v>20715054</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -18520,7 +18514,7 @@
         <v>494</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>495</v>
@@ -18533,7 +18527,7 @@
         <v>20853646</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -18544,7 +18538,7 @@
         <v>473</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>474</v>
@@ -18557,7 +18551,7 @@
         <v>20839328</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -18568,7 +18562,7 @@
         <v>449</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>450</v>
@@ -18581,7 +18575,7 @@
         <v>20806105</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -18592,7 +18586,7 @@
         <v>470</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>471</v>
@@ -18605,7 +18599,7 @@
         <v>20832411</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -18616,7 +18610,7 @@
         <v>416</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>417</v>
@@ -18629,7 +18623,7 @@
         <v>20714671</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -18640,7 +18634,7 @@
         <v>455</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>456</v>
@@ -18653,7 +18647,7 @@
         <v>20820864</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -18664,7 +18658,7 @@
         <v>434</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>435</v>
@@ -18677,7 +18671,7 @@
         <v>20760960</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -18688,7 +18682,7 @@
         <v>425</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>426</v>
@@ -18701,7 +18695,7 @@
         <v>20741827</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -18712,7 +18706,7 @@
         <v>428</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>429</v>
@@ -18725,7 +18719,7 @@
         <v>20741828</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -18736,7 +18730,7 @@
         <v>497</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>498</v>
@@ -18749,7 +18743,7 @@
         <v>20856838</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -18760,7 +18754,7 @@
         <v>482</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>483</v>
@@ -18773,7 +18767,7 @@
         <v>20847187</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -18784,7 +18778,7 @@
         <v>488</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>489</v>
@@ -18797,7 +18791,7 @@
         <v>20849297</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -18808,7 +18802,7 @@
         <v>476</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>477</v>
@@ -18821,7 +18815,7 @@
         <v>20841402</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -18832,7 +18826,7 @@
         <v>422</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>423</v>
@@ -18845,7 +18839,7 @@
         <v>20740953</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -18856,7 +18850,7 @@
         <v>464</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>465</v>
@@ -18869,7 +18863,7 @@
         <v>20827820</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -18880,7 +18874,7 @@
         <v>407</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>408</v>
@@ -18893,7 +18887,7 @@
         <v>20251320</v>
       </c>
       <c r="G92" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -18904,7 +18898,7 @@
         <v>392</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>394</v>
@@ -18917,7 +18911,7 @@
         <v>20790818</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -18928,7 +18922,7 @@
         <v>446</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>447</v>
@@ -18941,7 +18935,7 @@
         <v>20796672</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -18952,7 +18946,7 @@
         <v>467</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>468</v>
@@ -18965,7 +18959,7 @@
         <v>20830780</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -18976,7 +18970,7 @@
         <v>437</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>438</v>
@@ -18989,7 +18983,7 @@
         <v>20761116</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -19000,7 +18994,7 @@
         <v>403</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>405</v>
@@ -19013,7 +19007,7 @@
         <v>20250958</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -19024,7 +19018,7 @@
         <v>452</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>453</v>
@@ -19037,7 +19031,7 @@
         <v>20810445</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -19048,7 +19042,7 @@
         <v>458</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>459</v>
@@ -19061,7 +19055,7 @@
         <v>20823930</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -19072,7 +19066,7 @@
         <v>410</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>411</v>
@@ -19085,7 +19079,7 @@
         <v>20534910</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -19096,7 +19090,7 @@
         <v>431</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>432</v>
@@ -19109,7 +19103,7 @@
         <v>20749918</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -19120,7 +19114,7 @@
         <v>440</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D102" s="20" t="s">
         <v>441</v>
@@ -19133,7 +19127,7 @@
         <v>20765069</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -19144,7 +19138,7 @@
         <v>461</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D103" s="20" t="s">
         <v>462</v>
@@ -19157,7 +19151,7 @@
         <v>20826535</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -19168,7 +19162,7 @@
         <v>443</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D104" s="20" t="s">
         <v>444</v>
@@ -19181,7 +19175,7 @@
         <v>20771815</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -19192,7 +19186,7 @@
         <v>491</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D105" s="20" t="s">
         <v>492</v>
@@ -19205,7 +19199,7 @@
         <v>20853249</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -19216,7 +19210,7 @@
         <v>500</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D106" s="20" t="s">
         <v>501</v>
@@ -19229,7 +19223,7 @@
         <v>20865969</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -19240,7 +19234,7 @@
         <v>413</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D107" s="20" t="s">
         <v>414</v>
@@ -19253,7 +19247,7 @@
         <v>20710346</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -19264,7 +19258,7 @@
         <v>479</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D108" s="20" t="s">
         <v>480</v>
@@ -19277,7 +19271,7 @@
         <v>20845655</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -19288,7 +19282,7 @@
         <v>485</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D109" s="20" t="s">
         <v>486</v>
@@ -19301,7 +19295,7 @@
         <v>20849255</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -19312,7 +19306,7 @@
         <v>503</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="D110" s="20" t="s">
         <v>504</v>
@@ -19325,7 +19319,7 @@
         <v>20866699</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -19336,7 +19330,7 @@
         <v>132</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>133</v>
@@ -19349,7 +19343,7 @@
         <v>20746037</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -19360,7 +19354,7 @@
         <v>100</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>101</v>
@@ -19373,7 +19367,7 @@
         <v>20638939</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -19384,7 +19378,7 @@
         <v>261</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>262</v>
@@ -19397,7 +19391,7 @@
         <v>20838634</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -19408,7 +19402,7 @@
         <v>64</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>65</v>
@@ -19421,7 +19415,7 @@
         <v>20566673</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -19432,7 +19426,7 @@
         <v>354</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>355</v>
@@ -19445,7 +19439,7 @@
         <v>20872453</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -19456,7 +19450,7 @@
         <v>82</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>83</v>
@@ -19469,7 +19463,7 @@
         <v>20609873</v>
       </c>
       <c r="G116" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -19480,10 +19474,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E117" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19493,7 +19487,7 @@
         <v>20690577</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -19504,7 +19498,7 @@
         <v>46</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>47</v>
@@ -19517,7 +19511,7 @@
         <v>20534912</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -19528,7 +19522,7 @@
         <v>61</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>62</v>
@@ -19541,7 +19535,7 @@
         <v>20560655</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -19552,7 +19546,7 @@
         <v>366</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>367</v>
@@ -19565,7 +19559,7 @@
         <v>20873281</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -19576,7 +19570,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>119</v>
@@ -19589,7 +19583,7 @@
         <v>20691009</v>
       </c>
       <c r="G121" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -19600,7 +19594,7 @@
         <v>7</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>8</v>
@@ -19613,7 +19607,7 @@
         <v>20277040</v>
       </c>
       <c r="G122" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -19624,10 +19618,10 @@
         <v>392</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E123" s="1" t="str">
         <f t="shared" si="3"/>
@@ -19637,7 +19631,7 @@
         <v>20790818</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -19648,7 +19642,7 @@
         <v>159</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>160</v>
@@ -19661,7 +19655,7 @@
         <v>20775766</v>
       </c>
       <c r="G124" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -19672,7 +19666,7 @@
         <v>138</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>139</v>
@@ -19685,7 +19679,7 @@
         <v>20750969</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -19696,7 +19690,7 @@
         <v>315</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>316</v>
@@ -19709,7 +19703,7 @@
         <v>20854853</v>
       </c>
       <c r="G126" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -19720,7 +19714,7 @@
         <v>76</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>77</v>
@@ -19733,7 +19727,7 @@
         <v>20595635</v>
       </c>
       <c r="G127" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -19744,7 +19738,7 @@
         <v>303</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>304</v>
@@ -19757,7 +19751,7 @@
         <v>20848524</v>
       </c>
       <c r="G128" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -19768,7 +19762,7 @@
         <v>318</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>319</v>
@@ -19781,7 +19775,7 @@
         <v>20854859</v>
       </c>
       <c r="G129" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -19792,7 +19786,7 @@
         <v>258</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>259</v>
@@ -19805,7 +19799,7 @@
         <v>20838617</v>
       </c>
       <c r="G130" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -19816,7 +19810,7 @@
         <v>112</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>113</v>
@@ -19829,7 +19823,7 @@
         <v>20690577</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -19840,7 +19834,7 @@
         <v>25</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>26</v>
@@ -19853,7 +19847,7 @@
         <v>20421841</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -19864,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>2</v>
@@ -19877,7 +19871,7 @@
         <v>20250976</v>
       </c>
       <c r="G133" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -19888,7 +19882,7 @@
         <v>174</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>175</v>
@@ -19901,7 +19895,7 @@
         <v>20806373</v>
       </c>
       <c r="G134" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -19912,7 +19906,7 @@
         <v>109</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>110</v>
@@ -19925,7 +19919,7 @@
         <v>20678087</v>
       </c>
       <c r="G135" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -19936,7 +19930,7 @@
         <v>153</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>154</v>
@@ -19949,7 +19943,7 @@
         <v>20771816</v>
       </c>
       <c r="G136" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -19960,7 +19954,7 @@
         <v>363</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>364</v>
@@ -19973,7 +19967,7 @@
         <v>20873197</v>
       </c>
       <c r="G137" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -19984,7 +19978,7 @@
         <v>58</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>59</v>
@@ -19997,7 +19991,7 @@
         <v>20558225</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -20008,7 +20002,7 @@
         <v>126</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>127</v>
@@ -20021,7 +20015,7 @@
         <v>20742058</v>
       </c>
       <c r="G139" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -20029,13 +20023,13 @@
         <v>20690577</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E140" s="1" t="str">
         <f t="shared" si="3"/>
@@ -20045,7 +20039,7 @@
         <v>20690577</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -20056,7 +20050,7 @@
         <v>219</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>220</v>
@@ -20069,7 +20063,7 @@
         <v>20832431</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -20080,7 +20074,7 @@
         <v>43</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>44</v>
@@ -20093,7 +20087,7 @@
         <v>20525379</v>
       </c>
       <c r="G142" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -20104,7 +20098,7 @@
         <v>216</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>217</v>
@@ -20117,7 +20111,7 @@
         <v>20832409</v>
       </c>
       <c r="G143" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -20128,7 +20122,7 @@
         <v>261</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>262</v>
@@ -20141,7 +20135,7 @@
         <v>20838634</v>
       </c>
       <c r="G144" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -20152,7 +20146,7 @@
         <v>324</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>325</v>
@@ -20165,7 +20159,7 @@
         <v>20857710</v>
       </c>
       <c r="G145" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -20176,7 +20170,7 @@
         <v>123</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>124</v>
@@ -20189,7 +20183,7 @@
         <v>20737138</v>
       </c>
       <c r="G146" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -20200,7 +20194,7 @@
         <v>222</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>223</v>
@@ -20213,7 +20207,7 @@
         <v>20832763</v>
       </c>
       <c r="G147" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -20224,7 +20218,7 @@
         <v>97</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>98</v>
@@ -20237,7 +20231,7 @@
         <v>20629658</v>
       </c>
       <c r="G148" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -20248,7 +20242,7 @@
         <v>13</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>14</v>
@@ -20261,7 +20255,7 @@
         <v>20333295</v>
       </c>
       <c r="G149" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -20272,7 +20266,7 @@
         <v>52</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>53</v>
@@ -20285,7 +20279,7 @@
         <v>20540037</v>
       </c>
       <c r="G150" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -20296,7 +20290,7 @@
         <v>177</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>178</v>
@@ -20309,7 +20303,7 @@
         <v>20808080</v>
       </c>
       <c r="G151" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -20320,7 +20314,7 @@
         <v>204</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>205</v>
@@ -20333,7 +20327,7 @@
         <v>20827644</v>
       </c>
       <c r="G152" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -20344,7 +20338,7 @@
         <v>31</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>32</v>
@@ -20357,7 +20351,7 @@
         <v>20482038</v>
       </c>
       <c r="G153" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -20368,7 +20362,7 @@
         <v>112</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D154" s="26" t="s">
         <v>113</v>
@@ -20381,7 +20375,7 @@
         <v>20690577</v>
       </c>
       <c r="G154" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -20392,7 +20386,7 @@
         <v>79</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D155" s="26" t="s">
         <v>80</v>
@@ -20405,7 +20399,7 @@
         <v>20602253</v>
       </c>
       <c r="G155" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -20416,7 +20410,7 @@
         <v>345</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D156" s="26" t="s">
         <v>346</v>
@@ -20429,7 +20423,7 @@
         <v>20870477</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -20440,7 +20434,7 @@
         <v>31</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D157" s="26" t="s">
         <v>32</v>
@@ -20453,7 +20447,7 @@
         <v>20482038</v>
       </c>
       <c r="G157" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -20464,7 +20458,7 @@
         <v>342</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D158" s="26" t="s">
         <v>343</v>
@@ -20477,7 +20471,7 @@
         <v>20870476</v>
       </c>
       <c r="G158" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -20488,7 +20482,7 @@
         <v>16</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D159" s="26" t="s">
         <v>17</v>
@@ -20501,7 +20495,7 @@
         <v>20335818</v>
       </c>
       <c r="G159" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -20512,7 +20506,7 @@
         <v>351</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D160" s="26" t="s">
         <v>352</v>
@@ -20525,7 +20519,7 @@
         <v>20872319</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -20536,10 +20530,10 @@
         <v>216</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E161" s="1" t="str">
         <f t="shared" si="4"/>
@@ -20549,7 +20543,7 @@
         <v>20832409</v>
       </c>
       <c r="G161" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -20560,7 +20554,7 @@
         <v>360</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D162" s="26" t="s">
         <v>361</v>
@@ -20573,7 +20567,7 @@
         <v>20872832</v>
       </c>
       <c r="G162" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -20584,7 +20578,7 @@
         <v>357</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D163" s="26" t="s">
         <v>358</v>
@@ -20597,7 +20591,7 @@
         <v>20872830</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -20608,7 +20602,7 @@
         <v>192</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D164" s="26" t="s">
         <v>193</v>
@@ -20621,7 +20615,7 @@
         <v>20825913</v>
       </c>
       <c r="G164" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -20632,7 +20626,7 @@
         <v>126</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D165" s="26" t="s">
         <v>127</v>
@@ -20645,7 +20639,7 @@
         <v>20742058</v>
       </c>
       <c r="G165" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -20656,7 +20650,7 @@
         <v>37</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D166" s="26" t="s">
         <v>38</v>
@@ -20669,7 +20663,7 @@
         <v>20514573</v>
       </c>
       <c r="G166" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -20680,7 +20674,7 @@
         <v>210</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D167" s="26" t="s">
         <v>211</v>
@@ -20693,7 +20687,7 @@
         <v>20830082</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -20704,7 +20698,7 @@
         <v>144</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D168" s="26" t="s">
         <v>145</v>
@@ -20717,7 +20711,7 @@
         <v>20754513</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -20728,7 +20722,7 @@
         <v>249</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D169" s="26" t="s">
         <v>250</v>
@@ -20741,7 +20735,7 @@
         <v>20837946</v>
       </c>
       <c r="G169" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -20752,7 +20746,7 @@
         <v>183</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D170" s="26" t="s">
         <v>184</v>
@@ -20765,7 +20759,7 @@
         <v>20814574</v>
       </c>
       <c r="G170" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -20776,7 +20770,7 @@
         <v>312</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D171" s="26" t="s">
         <v>313</v>
@@ -20789,7 +20783,7 @@
         <v>20851262</v>
       </c>
       <c r="G171" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -20800,7 +20794,7 @@
         <v>297</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D172" s="26" t="s">
         <v>298</v>
@@ -20813,7 +20807,7 @@
         <v>20844144</v>
       </c>
       <c r="G172" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -20824,7 +20818,7 @@
         <v>336</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D173" s="26" t="s">
         <v>337</v>
@@ -20837,7 +20831,7 @@
         <v>20861333</v>
       </c>
       <c r="G173" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -20848,7 +20842,7 @@
         <v>156</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D174" s="26" t="s">
         <v>157</v>
@@ -20861,7 +20855,7 @@
         <v>20771817</v>
       </c>
       <c r="G174" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -20872,7 +20866,7 @@
         <v>70</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D175" s="26" t="s">
         <v>71</v>
@@ -20885,7 +20879,7 @@
         <v>20583869</v>
       </c>
       <c r="G175" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -20896,7 +20890,7 @@
         <v>291</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D176" s="26" t="s">
         <v>292</v>
@@ -20909,7 +20903,7 @@
         <v>20842719</v>
       </c>
       <c r="G176" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -20920,7 +20914,7 @@
         <v>141</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D177" s="26" t="s">
         <v>142</v>
@@ -20933,7 +20927,7 @@
         <v>20754512</v>
       </c>
       <c r="G177" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -20944,7 +20938,7 @@
         <v>276</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D178" s="26" t="s">
         <v>277</v>
@@ -20957,7 +20951,7 @@
         <v>20842478</v>
       </c>
       <c r="G178" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -20968,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D179" s="26" t="s">
         <v>2</v>
@@ -20981,7 +20975,7 @@
         <v>20250976</v>
       </c>
       <c r="G179" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -20992,7 +20986,7 @@
         <v>106</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D180" s="26" t="s">
         <v>107</v>
@@ -21005,7 +20999,7 @@
         <v>20663973</v>
       </c>
       <c r="G180" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -21016,7 +21010,7 @@
         <v>255</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D181" s="26" t="s">
         <v>256</v>
@@ -21029,7 +21023,7 @@
         <v>20838550</v>
       </c>
       <c r="G181" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -21040,10 +21034,10 @@
         <v>49</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E182" s="1" t="str">
         <f t="shared" si="4"/>
@@ -21053,7 +21047,7 @@
         <v>20535414</v>
       </c>
       <c r="G182" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -21064,7 +21058,7 @@
         <v>378</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D183" s="26" t="s">
         <v>379</v>
@@ -21077,7 +21071,7 @@
         <v>20875093</v>
       </c>
       <c r="G183" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -21088,7 +21082,7 @@
         <v>396</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D184" s="26" t="s">
         <v>398</v>
@@ -21101,7 +21095,7 @@
         <v>20629583</v>
       </c>
       <c r="G184" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -21112,7 +21106,7 @@
         <v>234</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D185" s="26" t="s">
         <v>235</v>
@@ -21125,7 +21119,7 @@
         <v>20834606</v>
       </c>
       <c r="G185" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -21136,7 +21130,7 @@
         <v>225</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D186" s="26" t="s">
         <v>226</v>
@@ -21149,7 +21143,7 @@
         <v>20832772</v>
       </c>
       <c r="G186" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -21160,7 +21154,7 @@
         <v>237</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D187" s="26" t="s">
         <v>238</v>
@@ -21173,7 +21167,7 @@
         <v>20834607</v>
       </c>
       <c r="G187" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -21184,7 +21178,7 @@
         <v>228</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D188" s="26" t="s">
         <v>229</v>
@@ -21197,7 +21191,7 @@
         <v>20833269</v>
       </c>
       <c r="G188" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -21208,7 +21202,7 @@
         <v>67</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D189" s="26" t="s">
         <v>68</v>
@@ -21221,7 +21215,7 @@
         <v>20578918</v>
       </c>
       <c r="G189" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -21232,7 +21226,7 @@
         <v>91</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D190" s="26" t="s">
         <v>92</v>
@@ -21245,7 +21239,7 @@
         <v>20625155</v>
       </c>
       <c r="G190" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -21256,7 +21250,7 @@
         <v>150</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D191" s="26" t="s">
         <v>151</v>
@@ -21269,7 +21263,7 @@
         <v>20765244</v>
       </c>
       <c r="G191" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -21280,7 +21274,7 @@
         <v>121</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D192" s="26" t="s">
         <v>44</v>
@@ -21293,7 +21287,7 @@
         <v>20716263</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -21304,7 +21298,7 @@
         <v>88</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D193" s="26" t="s">
         <v>89</v>
@@ -21317,7 +21311,7 @@
         <v>20625151</v>
       </c>
       <c r="G193" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -21328,7 +21322,7 @@
         <v>231</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D194" s="26" t="s">
         <v>232</v>
@@ -21341,7 +21335,7 @@
         <v>20833476</v>
       </c>
       <c r="G194" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -21352,7 +21346,7 @@
         <v>273</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D195" s="26" t="s">
         <v>274</v>
@@ -21365,7 +21359,7 @@
         <v>20840681</v>
       </c>
       <c r="G195" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -21376,7 +21370,7 @@
         <v>103</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D196" s="26" t="s">
         <v>104</v>
@@ -21389,7 +21383,7 @@
         <v>20650486</v>
       </c>
       <c r="G196" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -21400,7 +21394,7 @@
         <v>282</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D197" s="26" t="s">
         <v>283</v>
@@ -21413,7 +21407,7 @@
         <v>20842480</v>
       </c>
       <c r="G197" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -21424,7 +21418,7 @@
         <v>129</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D198" s="26" t="s">
         <v>130</v>
@@ -21437,7 +21431,7 @@
         <v>20745936</v>
       </c>
       <c r="G198" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -21448,7 +21442,7 @@
         <v>279</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D199" s="26" t="s">
         <v>280</v>
@@ -21461,7 +21455,7 @@
         <v>20842479</v>
       </c>
       <c r="G199" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -21472,7 +21466,7 @@
         <v>264</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D200" s="26" t="s">
         <v>265</v>
@@ -21485,7 +21479,7 @@
         <v>20838645</v>
       </c>
       <c r="G200" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -21496,7 +21490,7 @@
         <v>85</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D201" s="26" t="s">
         <v>86</v>
@@ -21509,7 +21503,7 @@
         <v>20623275</v>
       </c>
       <c r="G201" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -21520,7 +21514,7 @@
         <v>327</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D202" s="26" t="s">
         <v>328</v>
@@ -21533,7 +21527,7 @@
         <v>20858105</v>
       </c>
       <c r="G202" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -21544,7 +21538,7 @@
         <v>186</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D203" s="26" t="s">
         <v>187</v>
@@ -21557,7 +21551,7 @@
         <v>20818521</v>
       </c>
       <c r="G203" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -21568,7 +21562,7 @@
         <v>375</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D204" s="26" t="s">
         <v>376</v>
@@ -21581,7 +21575,7 @@
         <v>20874926</v>
       </c>
       <c r="G204" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -21592,7 +21586,7 @@
         <v>333</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D205" s="26" t="s">
         <v>334</v>
@@ -21605,7 +21599,7 @@
         <v>20860719</v>
       </c>
       <c r="G205" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -21616,7 +21610,7 @@
         <v>162</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D206" s="26" t="s">
         <v>163</v>
@@ -21629,7 +21623,7 @@
         <v>20790581</v>
       </c>
       <c r="G206" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -21640,7 +21634,7 @@
         <v>189</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D207" s="26" t="s">
         <v>190</v>
@@ -21653,7 +21647,7 @@
         <v>20820504</v>
       </c>
       <c r="G207" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -21664,7 +21658,7 @@
         <v>246</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D208" s="26" t="s">
         <v>247</v>
@@ -21677,7 +21671,7 @@
         <v>20837438</v>
       </c>
       <c r="G208" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -21688,7 +21682,7 @@
         <v>285</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D209" s="26" t="s">
         <v>286</v>
@@ -21701,7 +21695,7 @@
         <v>20842481</v>
       </c>
       <c r="G209" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -21712,7 +21706,7 @@
         <v>28</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D210" s="26" t="s">
         <v>29</v>
@@ -21725,7 +21719,7 @@
         <v>20434928</v>
       </c>
       <c r="G210" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -21736,7 +21730,7 @@
         <v>252</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D211" s="26" t="s">
         <v>253</v>
@@ -21749,7 +21743,7 @@
         <v>20838549</v>
       </c>
       <c r="G211" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -21760,7 +21754,7 @@
         <v>55</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D212" s="26" t="s">
         <v>56</v>
@@ -21773,7 +21767,7 @@
         <v>20545010</v>
       </c>
       <c r="G212" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -21784,7 +21778,7 @@
         <v>168</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D213" s="26" t="s">
         <v>169</v>
@@ -21797,7 +21791,7 @@
         <v>20795653</v>
       </c>
       <c r="G213" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -21808,7 +21802,7 @@
         <v>135</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D214" s="26" t="s">
         <v>136</v>
@@ -21821,7 +21815,7 @@
         <v>20746846</v>
       </c>
       <c r="G214" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -21832,7 +21826,7 @@
         <v>198</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D215" s="26" t="s">
         <v>199</v>
@@ -21845,7 +21839,7 @@
         <v>20826565</v>
       </c>
       <c r="G215" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -21856,10 +21850,10 @@
         <v>400</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E216" s="1" t="str">
         <f t="shared" si="5"/>
@@ -21869,7 +21863,7 @@
         <v>20805494</v>
       </c>
       <c r="G216" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -21880,7 +21874,7 @@
         <v>94</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D217" s="26" t="s">
         <v>95</v>
@@ -21893,7 +21887,7 @@
         <v>20625156</v>
       </c>
       <c r="G217" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -21904,7 +21898,7 @@
         <v>165</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D218" s="26" t="s">
         <v>166</v>
@@ -21917,7 +21911,7 @@
         <v>20793292</v>
       </c>
       <c r="G218" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -21928,7 +21922,7 @@
         <v>195</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D219" s="26" t="s">
         <v>196</v>
@@ -21941,7 +21935,7 @@
         <v>20826534</v>
       </c>
       <c r="G219" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -21952,7 +21946,7 @@
         <v>201</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D220" s="26" t="s">
         <v>202</v>
@@ -21965,7 +21959,7 @@
         <v>20827309</v>
       </c>
       <c r="G220" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -21976,7 +21970,7 @@
         <v>207</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D221" s="26" t="s">
         <v>208</v>
@@ -21989,7 +21983,7 @@
         <v>20829800</v>
       </c>
       <c r="G221" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -22000,7 +21994,7 @@
         <v>300</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D222" s="26" t="s">
         <v>301</v>
@@ -22013,7 +22007,7 @@
         <v>20844752</v>
       </c>
       <c r="G222" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -22024,7 +22018,7 @@
         <v>306</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D223" s="26" t="s">
         <v>307</v>
@@ -22037,7 +22031,7 @@
         <v>20849841</v>
       </c>
       <c r="G223" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -22048,7 +22042,7 @@
         <v>34</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D224" s="26" t="s">
         <v>35</v>
@@ -22061,7 +22055,7 @@
         <v>20485394</v>
       </c>
       <c r="G224" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -22072,7 +22066,7 @@
         <v>309</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D225" s="26" t="s">
         <v>310</v>
@@ -22085,7 +22079,7 @@
         <v>20850618</v>
       </c>
       <c r="G225" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -22096,7 +22090,7 @@
         <v>64</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D226" s="26" t="s">
         <v>65</v>
@@ -22109,7 +22103,7 @@
         <v>20566673</v>
       </c>
       <c r="G226" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -22120,7 +22114,7 @@
         <v>73</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D227" s="26" t="s">
         <v>74</v>
@@ -22133,7 +22127,7 @@
         <v>20585511</v>
       </c>
       <c r="G227" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -22144,7 +22138,7 @@
         <v>19</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D228" s="26" t="s">
         <v>20</v>
@@ -22157,7 +22151,7 @@
         <v>20410168</v>
       </c>
       <c r="G228" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -22168,7 +22162,7 @@
         <v>180</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D229" s="26" t="s">
         <v>181</v>
@@ -22181,7 +22175,7 @@
         <v>20813990</v>
       </c>
       <c r="G229" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -22192,7 +22186,7 @@
         <v>22</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D230" s="26" t="s">
         <v>23</v>
@@ -22205,7 +22199,7 @@
         <v>20413025</v>
       </c>
       <c r="G230" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -22216,7 +22210,7 @@
         <v>321</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D231" s="26" t="s">
         <v>322</v>
@@ -22229,7 +22223,7 @@
         <v>20855491</v>
       </c>
       <c r="G231" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -22240,7 +22234,7 @@
         <v>240</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D232" s="26" t="s">
         <v>241</v>
@@ -22253,7 +22247,7 @@
         <v>20834969</v>
       </c>
       <c r="G232" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -22264,7 +22258,7 @@
         <v>147</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>148</v>
@@ -22277,7 +22271,7 @@
         <v>20759417</v>
       </c>
       <c r="G233" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -22288,7 +22282,7 @@
         <v>294</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D234" s="26" t="s">
         <v>295</v>
@@ -22301,7 +22295,7 @@
         <v>20844023</v>
       </c>
       <c r="G234" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -22312,7 +22306,7 @@
         <v>330</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D235" s="26" t="s">
         <v>331</v>
@@ -22325,7 +22319,7 @@
         <v>20858215</v>
       </c>
       <c r="G235" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -22336,7 +22330,7 @@
         <v>270</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D236" s="26" t="s">
         <v>271</v>
@@ -22349,7 +22343,7 @@
         <v>20839330</v>
       </c>
       <c r="G236" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -22360,7 +22354,7 @@
         <v>213</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D237" s="26" t="s">
         <v>214</v>
@@ -22373,7 +22367,7 @@
         <v>20832021</v>
       </c>
       <c r="G237" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -22384,7 +22378,7 @@
         <v>288</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D238" s="26" t="s">
         <v>289</v>
@@ -22397,7 +22391,7 @@
         <v>20842534</v>
       </c>
       <c r="G238" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -22408,7 +22402,7 @@
         <v>243</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D239" s="26" t="s">
         <v>244</v>
@@ -22421,7 +22415,7 @@
         <v>20835472</v>
       </c>
       <c r="G239" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -22432,7 +22426,7 @@
         <v>115</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D240" s="26" t="s">
         <v>116</v>
@@ -22445,7 +22439,7 @@
         <v>20690917</v>
       </c>
       <c r="G240" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -22456,7 +22450,7 @@
         <v>40</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D241" s="26" t="s">
         <v>41</v>
@@ -22469,7 +22463,7 @@
         <v>20514574</v>
       </c>
       <c r="G241" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -22480,7 +22474,7 @@
         <v>10</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D242" s="26" t="s">
         <v>11</v>
@@ -22493,7 +22487,7 @@
         <v>20327596</v>
       </c>
       <c r="G242" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -22504,7 +22498,7 @@
         <v>369</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D243" s="26" t="s">
         <v>370</v>
@@ -22517,7 +22511,7 @@
         <v>20874269</v>
       </c>
       <c r="G243" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -22528,7 +22522,7 @@
         <v>372</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D244" s="26" t="s">
         <v>373</v>
@@ -22541,7 +22535,7 @@
         <v>20874270</v>
       </c>
       <c r="G244" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -22552,7 +22546,7 @@
         <v>171</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D245" s="26" t="s">
         <v>172</v>
@@ -22565,7 +22559,7 @@
         <v>20800854</v>
       </c>
       <c r="G245" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -22576,7 +22570,7 @@
         <v>384</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D246" s="26" t="s">
         <v>385</v>
@@ -22589,7 +22583,7 @@
         <v>20875151</v>
       </c>
       <c r="G246" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -22600,7 +22594,7 @@
         <v>381</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D247" s="26" t="s">
         <v>382</v>
@@ -22613,7 +22607,7 @@
         <v>20875150</v>
       </c>
       <c r="G247" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -22624,7 +22618,7 @@
         <v>267</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D248" s="26" t="s">
         <v>268</v>
@@ -22637,7 +22631,7 @@
         <v>20839329</v>
       </c>
       <c r="G248" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -22648,7 +22642,7 @@
         <v>387</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D249" s="26" t="s">
         <v>50</v>
@@ -22661,7 +22655,7 @@
         <v>20876157</v>
       </c>
       <c r="G249" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -22672,7 +22666,7 @@
         <v>4</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D250" s="26" t="s">
         <v>5</v>
@@ -22685,7 +22679,7 @@
         <v>20270877</v>
       </c>
       <c r="G250" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -22696,7 +22690,7 @@
         <v>348</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D251" s="26" t="s">
         <v>349</v>
@@ -22709,7 +22703,7 @@
         <v>20872282</v>
       </c>
       <c r="G251" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -22720,7 +22714,7 @@
         <v>339</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D252" s="26" t="s">
         <v>340</v>
@@ -22733,7 +22727,7 @@
         <v>20861727</v>
       </c>
       <c r="G252" s="29" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
